--- a/Similarity_score_baseine.xlsx
+++ b/Similarity_score_baseine.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Development\Data_Setup\DCS_READ\sanskrit\Dataset_creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Development\Data_Setup\DCS_READ\Embedding_experiment\EMbedding output files\Sanskrit-embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BCBC1B-3F74-4166-A3B1-4F7124EBBD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1097EFF0-A55C-4236-A3B1-F9FC8459225B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Similarty Score - Baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="POS Tag Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1142">
   <si>
     <t>Base English</t>
   </si>
@@ -3423,6 +3424,47 @@
   </si>
   <si>
     <t>tad: Case=Accusative, Gender=Masculine, Number=Singular, uttaka: Case=Nominative, Gender=Masculine, Number=Singular, abhisṛ: VerbForm=Conv, kṛ: Compound, VerbForm=Part, udaka: Compound, kārya: Case=Nominative, Gender=Masculine, Number=Singular, śuci: Case=Nominative, Gender=Masculine, Number=Singular, prayam: Case=Nominative, Gender=Masculine, Number=Singular, VerbForm=Part, namas: Case=Accusative, Gender=Neuter, Number=Singular, deva: Case=Dative, Gender=Masculine, Number=Plural, guru: Case=Dative, Gender=Masculine, Number=Plural, ca: , kṛ: VerbForm=Conv, mahat: Case=Instrumental, Gender=Masculine, Number=Singular, java: Case=Instrumental, Gender=Masculine, Number=Singular, tad: Case=Accusative, Gender=Masculine, Number=Singular, anuyā: Tense=Past, Mood=Indicative, Person=3, Number=Singular</t>
+  </si>
+  <si>
+    <t>Sanskrit - FROm DCS</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>ॐ तपः स्वाध्यायनिरतं तपस्वी वाग्विदां वरम्। 
+नारदं परिपप्रच्छ वाल्मीकिर्मुनिपुङ्गवम्॥</t>
+  </si>
+  <si>
+    <t>tapaḥsvādhyāyanirataṃ tapasvī vāgvidāṃ varam
+nāradaṃ paripapraccha vālmīkir munipuṃgavam</t>
+  </si>
+  <si>
+    <t>tapas	_	_
+tapas	NOUN	Case=Cpd
+svÄdhyÄya	NOUN	Case=Cpd
+niratam	VERB	Case=Acc|Gender=Masc|Number=Sing|VerbForm=Part
+tapasvi	NOUN	Case=Nom|Gender=Masc|Number=Sing
+"vāgvidāṃ	"	_	_
+vÄc	NOUN	Case=Cpd
+vidÄm	ADJ	Case=Gen|Gender=Masc|Number=Plur
+varam	ADJ	Case=Acc|Gender=Masc|Number=Sing</t>
+  </si>
+  <si>
+    <t>Sentence: tapaḥsvādhyāyanirataṃ tapasvī vāgvidāṃ varam
+{'id': 1, 'form': 'tapas', 'lemma': 'tapas', 'upos': 'NOUN', 'xpos': None, 'feats': {'Case': 'Cpd'}, 'head': None, 'deprel': '_'}
+{'id': 2, 'form': 'svādhyāya', 'lemma': 'svādhyāya', 'upos': 'NOUN', 'xpos': None, 'feats': {'Case': 'Cpd'}, 'head': None, 'deprel': '_'}
+{'id': 3, 'form': 'niratam', 'lemma': 'niram', 'upos': 'VERB', 'xpos': None, 'feats': {'Case': 'Acc', 'Gender': 'Masc', 'Number': 'Sing', 'VerbForm': 'Part'}, 'head': None, 'deprel': '_'}
+{'id': 4, 'form': 'tapasvī', 'lemma': 'tapasvin', 'upos': 'NOUN', 'xpos': None, 'feats': {'Case': 'Nom', 'Gender': 'Masc', 'Number': 'Sing'}, 'head': None, 'deprel': '_'}
+{'id': 5, 'form': 'vāc', 'lemma': 'vāc', 'upos': 'NOUN', 'xpos': None, 'feats': {'Case': 'Cpd'}, 'head': None, 'deprel': '_'}
+{'id': 6, 'form': 'vidām', 'lemma': 'vid', 'upos': 'ADJ', 'xpos': None, 'feats': {'Case': 'Gen', 'Gender': 'Masc', 'Number': 'Plur'}, 'head': None, 'deprel': '_'}
+{'id': 7, 'form': 'varam', 'lemma': 'vara', 'upos': 'ADJ', 'xpos': None, 'feats': {'Case': 'Acc', 'Gender': 'Masc', 'Number': 'Sing'}, 'head': None, 'deprel': '_'}</t>
+  </si>
+  <si>
+    <t>Annotated Data</t>
+  </si>
+  <si>
+    <t>Extrcated from embedding</t>
   </si>
 </sst>
 </file>
@@ -3887,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,12 +3941,12 @@
     <col min="4" max="4" width="48.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="47" style="3" customWidth="1"/>
-    <col min="7" max="7" width="88.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="88.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3927,22 +3969,22 @@
         <v>859</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>889</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
@@ -3964,23 +4006,23 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6">
+        <v>0.93470001220703125</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.91310000419616699</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.93470001220703125</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.91310000419616699</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0.29959999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3993,23 +4035,23 @@
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6">
+        <v>0.95490002632141113</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.93879997730255127</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.95490002632141113</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.93879997730255127</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0.26860000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4020,23 +4062,23 @@
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6">
+        <v>0.94539999961853027</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.93629997968673706</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.4415</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.94539999961853027</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.93629997968673706</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.4415</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4047,23 +4089,23 @@
       <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6">
+        <v>0.94230002164840698</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.93940001726150513</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.94230002164840698</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.93940001726150513</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4074,23 +4116,23 @@
       <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6">
+        <v>0.91299998760223389</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.95169997215270996</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.3548</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.91299998760223389</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.95169997215270996</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.3548</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4101,23 +4143,23 @@
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6">
+        <v>0.94660001993179321</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.95389997959136963</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.94660001993179321</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.95389997959136963</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.36059999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4128,23 +4170,23 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6">
+        <v>0.90460002422332764</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.95789998769760132</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.90460002422332764</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.95789998769760132</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0.37290000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4155,23 +4197,23 @@
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6">
+        <v>0.96329998970031738</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.93239998817443848</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.96329998970031738</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.93239998817443848</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4182,23 +4224,23 @@
       <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6">
+        <v>0.92729997634887695</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.94169998168945313</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.92729997634887695</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.94169998168945313</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.27779999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4209,23 +4251,23 @@
       <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6">
+        <v>0.9593999981880188</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.91750001907348633</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.9593999981880188</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.91750001907348633</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.31490000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -4247,23 +4289,23 @@
       <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1">
+        <v>0.93140000104904175</v>
+      </c>
+      <c r="H12">
+        <v>0.97780001163482666</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.93140000104904175</v>
-      </c>
-      <c r="K12">
-        <v>0.97780001163482666</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0.25419999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -4276,207 +4318,207 @@
       <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1">
+        <v>0.96979999542236328</v>
+      </c>
+      <c r="H13">
+        <v>0.96560001373291016</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.96979999542236328</v>
-      </c>
-      <c r="K13">
-        <v>0.96560001373291016</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0.33429999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1">
+        <v>0.96039998531341553</v>
+      </c>
+      <c r="H14">
+        <v>0.96009999513626099</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.96039998531341553</v>
-      </c>
-      <c r="K14">
-        <v>0.96009999513626099</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0.31169999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1">
+        <v>0.96149998903274536</v>
+      </c>
+      <c r="H15">
+        <v>0.95980000495910645</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.96149998903274536</v>
-      </c>
-      <c r="K15">
-        <v>0.95980000495910645</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0.25690000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1">
+        <v>0.96969997882843018</v>
+      </c>
+      <c r="H16">
+        <v>0.96689999103546143</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.96969997882843018</v>
-      </c>
-      <c r="K16">
-        <v>0.96689999103546143</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0.28449999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1">
+        <v>0.96490001678466797</v>
+      </c>
+      <c r="H17">
+        <v>0.96850001811981201</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.96490001678466797</v>
-      </c>
-      <c r="K17">
-        <v>0.96850001811981201</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.29520000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1">
+        <v>0.93569999933242798</v>
+      </c>
+      <c r="H18">
+        <v>0.97469997406005859</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.93569999933242798</v>
-      </c>
-      <c r="K18">
-        <v>0.97469997406005859</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1">
+        <v>0.95670002698898315</v>
+      </c>
+      <c r="H19">
+        <v>0.93550002574920654</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.2056</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.95670002698898315</v>
-      </c>
-      <c r="K19">
-        <v>0.93550002574920654</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.2056</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1">
+        <v>0.97000002861022949</v>
+      </c>
+      <c r="H20">
+        <v>0.96890002489089966</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.97000002861022949</v>
-      </c>
-      <c r="K20">
-        <v>0.96890002489089966</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.31609999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1">
+        <v>0.94849997758865356</v>
+      </c>
+      <c r="H21">
+        <v>0.96079999208450317</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.94849997758865356</v>
-      </c>
-      <c r="K21">
-        <v>0.96079999208450317</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0.28220000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="255" x14ac:dyDescent="0.25">
@@ -4498,23 +4540,23 @@
       <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1">
+        <v>0.90570002794265747</v>
+      </c>
+      <c r="H22">
+        <v>0.96289998292922974</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.90570002794265747</v>
-      </c>
-      <c r="K22">
-        <v>0.96289998292922974</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0.38840000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4524,207 +4566,207 @@
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1">
+        <v>0.90600001811981201</v>
+      </c>
+      <c r="H23">
+        <v>0.94789999723434448</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.90600001811981201</v>
-      </c>
-      <c r="K23">
-        <v>0.94789999723434448</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0.32840000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1">
+        <v>0.94980001449584961</v>
+      </c>
+      <c r="H24">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.94980001449584961</v>
-      </c>
-      <c r="K24">
-        <v>0.93500000238418579</v>
-      </c>
-      <c r="L24" s="11">
-        <v>0.47810000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1">
+        <v>0.93519997596740723</v>
+      </c>
+      <c r="H25">
+        <v>0.9617999792098999</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.3397</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.93519997596740723</v>
-      </c>
-      <c r="K25">
-        <v>0.9617999792098999</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0.3397</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="H26">
+        <v>0.95999997854232788</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.94279998540878296</v>
-      </c>
-      <c r="K26">
-        <v>0.95999997854232788</v>
-      </c>
-      <c r="L26" s="11">
-        <v>0.35830000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1">
+        <v>0.94599997997283936</v>
+      </c>
+      <c r="H27">
+        <v>0.95810002088546753</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.94599997997283936</v>
-      </c>
-      <c r="K27">
-        <v>0.95810002088546753</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0.32440000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1">
+        <v>0.94260001182556152</v>
+      </c>
+      <c r="H28">
+        <v>0.9505000114440918</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.94260001182556152</v>
-      </c>
-      <c r="K28">
-        <v>0.9505000114440918</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0.32469999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1">
+        <v>0.92790001630783081</v>
+      </c>
+      <c r="H29">
+        <v>0.94980001449584961</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.3276</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.92790001630783081</v>
-      </c>
-      <c r="K29">
-        <v>0.94980001449584961</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0.3276</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1">
+        <v>0.94660001993179321</v>
+      </c>
+      <c r="H30">
+        <v>0.95440000295639038</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.3523</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.94660001993179321</v>
-      </c>
-      <c r="K30">
-        <v>0.95440000295639038</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0.3523</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="1">
+        <v>0.95169997215270996</v>
+      </c>
+      <c r="H31">
+        <v>0.95709997415542603</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.95169997215270996</v>
-      </c>
-      <c r="K31">
-        <v>0.95709997415542603</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0.31809999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -4746,23 +4788,23 @@
       <c r="F32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="1">
+        <v>0.93080002069473267</v>
+      </c>
+      <c r="H32">
+        <v>0.93569999933242798</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.93080002069473267</v>
-      </c>
-      <c r="K32">
-        <v>0.93569999933242798</v>
-      </c>
-      <c r="L32" s="11">
-        <v>0.32669999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4773,23 +4815,23 @@
       <c r="F33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="1">
+        <v>0.90799999237060547</v>
+      </c>
+      <c r="H33">
+        <v>0.94669997692108154</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.90799999237060547</v>
-      </c>
-      <c r="K33">
-        <v>0.94669997692108154</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0.27189999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4797,23 +4839,23 @@
       <c r="F34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="1">
+        <v>0.9089999794960022</v>
+      </c>
+      <c r="H34">
+        <v>0.94129997491836548</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.9089999794960022</v>
-      </c>
-      <c r="K34">
-        <v>0.94129997491836548</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0.25109999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4821,23 +4863,23 @@
       <c r="F35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1">
+        <v>0.88239997625350952</v>
+      </c>
+      <c r="H35">
+        <v>0.96299999952316284</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.88239997625350952</v>
-      </c>
-      <c r="K35">
-        <v>0.96299999952316284</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4845,23 +4887,23 @@
       <c r="F36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1">
+        <v>0.84710001945495605</v>
+      </c>
+      <c r="H36">
+        <v>0.94940000772476196</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.28070000000000001</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.84710001945495605</v>
-      </c>
-      <c r="K36">
-        <v>0.94940000772476196</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0.28070000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4869,23 +4911,23 @@
       <c r="F37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="1">
+        <v>0.87790000438690186</v>
+      </c>
+      <c r="H37">
+        <v>0.94559997320175171</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.2863</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K37" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.87790000438690186</v>
-      </c>
-      <c r="K37">
-        <v>0.94559997320175171</v>
-      </c>
-      <c r="L37" s="11">
-        <v>0.2863</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4893,23 +4935,23 @@
       <c r="F38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="1">
+        <v>0.91119998693466187</v>
+      </c>
+      <c r="H38">
+        <v>0.95230001211166382</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.91119998693466187</v>
-      </c>
-      <c r="K38">
-        <v>0.95230001211166382</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4917,23 +4959,23 @@
       <c r="F39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1">
+        <v>0.87150001525878906</v>
+      </c>
+      <c r="H39">
+        <v>0.93209999799728394</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>126</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.87150001525878906</v>
-      </c>
-      <c r="K39">
-        <v>0.93209999799728394</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0.32250000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4941,23 +4983,23 @@
       <c r="F40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1">
+        <v>0.89079999923706055</v>
+      </c>
+      <c r="H40">
+        <v>0.95249998569488525</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.89079999923706055</v>
-      </c>
-      <c r="K40">
-        <v>0.95249998569488525</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0.34339999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4965,23 +5007,23 @@
       <c r="F41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1">
+        <v>0.89079999923706055</v>
+      </c>
+      <c r="H41">
+        <v>0.95249998569488525</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
         <v>130</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.89079999923706055</v>
-      </c>
-      <c r="K41">
-        <v>0.95249998569488525</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0.34339999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -5003,23 +5045,23 @@
       <c r="F42" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1">
+        <v>0.95639997720718384</v>
+      </c>
+      <c r="H42">
+        <v>0.92159998416900635</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.95639997720718384</v>
-      </c>
-      <c r="K42">
-        <v>0.92159998416900635</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0.52569999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5029,207 +5071,207 @@
       <c r="F43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1">
+        <v>0.92809998989105225</v>
+      </c>
+      <c r="H43">
+        <v>0.92710000276565552</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.92809998989105225</v>
-      </c>
-      <c r="K43">
-        <v>0.92710000276565552</v>
-      </c>
-      <c r="L43" s="11">
-        <v>0.20449999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="1">
+        <v>0.94470000267028809</v>
+      </c>
+      <c r="H44">
+        <v>0.94950002431869507</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.94470000267028809</v>
-      </c>
-      <c r="K44">
-        <v>0.94950002431869507</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0.28420000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="1">
+        <v>0.92589998245239258</v>
+      </c>
+      <c r="H45">
+        <v>0.94010001420974731</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.92589998245239258</v>
-      </c>
-      <c r="K45">
-        <v>0.94010001420974731</v>
-      </c>
-      <c r="L45" s="11">
-        <v>0.36349999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F46" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="1">
+        <v>0.94029998779296875</v>
+      </c>
+      <c r="H46">
+        <v>0.93699997663497925</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.94029998779296875</v>
-      </c>
-      <c r="K46">
-        <v>0.93699997663497925</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0.55110000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="1">
+        <v>0.95829999446868896</v>
+      </c>
+      <c r="H47">
+        <v>0.92849999666213989</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>151</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.95829999446868896</v>
-      </c>
-      <c r="K47">
-        <v>0.92849999666213989</v>
-      </c>
-      <c r="L47" s="11">
-        <v>0.31380000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="1">
+        <v>0.95130002498626709</v>
+      </c>
+      <c r="H48">
+        <v>0.94220000505447388</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.95130002498626709</v>
-      </c>
-      <c r="K48">
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="1">
+        <v>0.96380001306533813</v>
+      </c>
+      <c r="H49">
+        <v>0.92390000820159912</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.2681</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.96380001306533813</v>
-      </c>
-      <c r="K49">
-        <v>0.92390000820159912</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0.2681</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="1">
+        <v>0.87730002403259277</v>
+      </c>
+      <c r="H50">
+        <v>0.94429999589920044</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.87730002403259277</v>
-      </c>
-      <c r="K50">
-        <v>0.94429999589920044</v>
-      </c>
-      <c r="L50" s="11">
-        <v>0.25629999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="1">
+        <v>0.94110000133514404</v>
+      </c>
+      <c r="H51">
+        <v>0.92089998722076416</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>163</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.94110000133514404</v>
-      </c>
-      <c r="K51">
-        <v>0.92089998722076416</v>
-      </c>
-      <c r="L51" s="11">
-        <v>0.36530000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="315" x14ac:dyDescent="0.25">
@@ -5251,23 +5293,23 @@
       <c r="F52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="1">
+        <v>0.9406999945640564</v>
+      </c>
+      <c r="H52">
+        <v>0.94290000200271606</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
         <v>169</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.9406999945640564</v>
-      </c>
-      <c r="K52">
-        <v>0.94290000200271606</v>
-      </c>
-      <c r="L52" s="11">
-        <v>0.38969999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5277,207 +5319,207 @@
       <c r="F53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="1">
+        <v>0.92619997262954712</v>
+      </c>
+      <c r="H53">
+        <v>0.96200001239776611</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.4783</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H53" t="s">
+      <c r="K53" t="s">
         <v>172</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.92619997262954712</v>
-      </c>
-      <c r="K53">
-        <v>0.96200001239776611</v>
-      </c>
-      <c r="L53" s="11">
-        <v>0.4783</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F54" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="1">
+        <v>0.93930000066757202</v>
+      </c>
+      <c r="H54">
+        <v>0.93519997596740723</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K54" t="s">
         <v>175</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.93930000066757202</v>
-      </c>
-      <c r="K54">
-        <v>0.93519997596740723</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0.44240000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F55" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="1">
+        <v>0.92079997062683105</v>
+      </c>
+      <c r="H55">
+        <v>0.95420002937316895</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>178</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.92079997062683105</v>
-      </c>
-      <c r="K55">
-        <v>0.95420002937316895</v>
-      </c>
-      <c r="L55" s="11">
-        <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="1">
+        <v>0.94019997119903564</v>
+      </c>
+      <c r="H56">
+        <v>0.93349999189376831</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>181</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.94019997119903564</v>
-      </c>
-      <c r="K56">
-        <v>0.93349999189376831</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0.45550000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F57" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="1">
+        <v>0.96359997987747192</v>
+      </c>
+      <c r="H57">
+        <v>0.96350002288818359</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.96359997987747192</v>
-      </c>
-      <c r="K57">
-        <v>0.96350002288818359</v>
-      </c>
-      <c r="L57" s="11">
-        <v>0.43030000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F58" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="1">
+        <v>0.85409998893737793</v>
+      </c>
+      <c r="H58">
+        <v>0.95440000295639038</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
         <v>187</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.85409998893737793</v>
-      </c>
-      <c r="K58">
-        <v>0.95440000295639038</v>
-      </c>
-      <c r="L58" s="11">
-        <v>0.41189999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F59" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="1">
+        <v>0.93159997463226318</v>
+      </c>
+      <c r="H59">
+        <v>0.95660001039505005</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>190</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.93159997463226318</v>
-      </c>
-      <c r="K59">
-        <v>0.95660001039505005</v>
-      </c>
-      <c r="L59" s="11">
-        <v>0.49919999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F60" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="1">
+        <v>0.92320001125335693</v>
+      </c>
+      <c r="H60">
+        <v>0.96390002965927124</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.92320001125335693</v>
-      </c>
-      <c r="K60">
-        <v>0.96390002965927124</v>
-      </c>
-      <c r="L60" s="11">
-        <v>0.31969999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F61" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="1">
+        <v>0.91109997034072876</v>
+      </c>
+      <c r="H61">
+        <v>0.97299998998641968</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0.91109997034072876</v>
-      </c>
-      <c r="K61">
-        <v>0.97299998998641968</v>
-      </c>
-      <c r="L61" s="11">
-        <v>0.49940000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -5499,23 +5541,23 @@
       <c r="F62" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="1">
+        <v>0.89960002899169922</v>
+      </c>
+      <c r="H62">
+        <v>0.9593999981880188</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0.89960002899169922</v>
-      </c>
-      <c r="K62">
-        <v>0.9593999981880188</v>
-      </c>
-      <c r="L62" s="11">
-        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5525,207 +5567,207 @@
       <c r="F63" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="1">
+        <v>0.92309999465942383</v>
+      </c>
+      <c r="H63">
+        <v>0.95829999446868896</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>205</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0.92309999465942383</v>
-      </c>
-      <c r="K63">
-        <v>0.95829999446868896</v>
-      </c>
-      <c r="L63" s="11">
-        <v>0.31580000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F64" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="1">
+        <v>0.88050001859664917</v>
+      </c>
+      <c r="H64">
+        <v>0.96200001239776611</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>208</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0.88050001859664917</v>
-      </c>
-      <c r="K64">
-        <v>0.96200001239776611</v>
-      </c>
-      <c r="L64" s="11">
-        <v>0.56079999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F65" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="1">
+        <v>0.88410001993179321</v>
+      </c>
+      <c r="H65">
+        <v>0.95029997825622559</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>211</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.88410001993179321</v>
-      </c>
-      <c r="K65">
-        <v>0.95029997825622559</v>
-      </c>
-      <c r="L65" s="11">
-        <v>0.33510000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F66" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="1">
+        <v>0.90369999408721924</v>
+      </c>
+      <c r="H66">
+        <v>0.95179998874664307</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.2949</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>214</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.90369999408721924</v>
-      </c>
-      <c r="K66">
-        <v>0.95179998874664307</v>
-      </c>
-      <c r="L66" s="11">
-        <v>0.2949</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F67" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="1">
+        <v>0.88529998064041138</v>
+      </c>
+      <c r="H67">
+        <v>0.93610000610351563</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>805</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0.88529998064041138</v>
-      </c>
-      <c r="K67">
-        <v>0.93610000610351563</v>
-      </c>
-      <c r="L67" s="11">
-        <v>0.33589999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F68" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="1">
+        <v>0.88830000162124634</v>
+      </c>
+      <c r="H68">
+        <v>0.94029998779296875</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>219</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.88830000162124634</v>
-      </c>
-      <c r="K68">
-        <v>0.94029998779296875</v>
-      </c>
-      <c r="L68" s="11">
-        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F69" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="1">
+        <v>0.9341999888420105</v>
+      </c>
+      <c r="H69">
+        <v>0.95800000429153442</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>222</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0.9341999888420105</v>
-      </c>
-      <c r="K69">
-        <v>0.95800000429153442</v>
-      </c>
-      <c r="L69" s="11">
-        <v>0.31109999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F70" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="1">
+        <v>0.928600013256073</v>
+      </c>
+      <c r="H70">
+        <v>0.95240002870559692</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>225</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0.928600013256073</v>
-      </c>
-      <c r="K70">
-        <v>0.95240002870559692</v>
-      </c>
-      <c r="L70" s="11">
-        <v>0.31630000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F71" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="1">
+        <v>0.93379998207092285</v>
+      </c>
+      <c r="H71">
+        <v>0.93440002202987671</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>228</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0.93379998207092285</v>
-      </c>
-      <c r="K71">
-        <v>0.93440002202987671</v>
-      </c>
-      <c r="L71" s="11">
-        <v>0.32429999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -5747,23 +5789,23 @@
       <c r="F72" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="1">
+        <v>0.91170001029968262</v>
+      </c>
+      <c r="H72">
+        <v>0.94720000028610229</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H72" t="s">
+      <c r="K72" t="s">
         <v>234</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.91170001029968262</v>
-      </c>
-      <c r="K72">
-        <v>0.94720000028610229</v>
-      </c>
-      <c r="L72" s="11">
-        <v>0.49990000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5773,207 +5815,207 @@
       <c r="F73" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="1">
+        <v>0.85670000314712524</v>
+      </c>
+      <c r="H73">
+        <v>0.93220001459121704</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
         <v>129</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0.85670000314712524</v>
-      </c>
-      <c r="K73">
-        <v>0.93220001459121704</v>
-      </c>
-      <c r="L73" s="11">
-        <v>0.53939999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="1">
+        <v>0.90130001306533813</v>
+      </c>
+      <c r="H74">
+        <v>0.93709999322891235</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K74" t="s">
         <v>239</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0.90130001306533813</v>
-      </c>
-      <c r="K74">
-        <v>0.93709999322891235</v>
-      </c>
-      <c r="L74" s="11">
-        <v>0.26490000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F75" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="1">
+        <v>0.87019997835159302</v>
+      </c>
+      <c r="H75">
+        <v>0.92949998378753662</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
         <v>242</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0.87019997835159302</v>
-      </c>
-      <c r="K75">
-        <v>0.92949998378753662</v>
-      </c>
-      <c r="L75" s="11">
-        <v>0.33110000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F76" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="1">
+        <v>0.92890000343322754</v>
+      </c>
+      <c r="H76">
+        <v>0.92729997634887695</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0.2969</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K76" t="s">
         <v>245</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0.92890000343322754</v>
-      </c>
-      <c r="K76">
-        <v>0.92729997634887695</v>
-      </c>
-      <c r="L76" s="11">
-        <v>0.2969</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="1">
+        <v>0.89819997549057007</v>
+      </c>
+      <c r="H77">
+        <v>0.91600000858306885</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K77" t="s">
         <v>248</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0.89819997549057007</v>
-      </c>
-      <c r="K77">
-        <v>0.91600000858306885</v>
-      </c>
-      <c r="L77" s="11">
-        <v>0.39760000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F78" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="1">
+        <v>0.86479997634887695</v>
+      </c>
+      <c r="H78">
+        <v>0.90759998559951782</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0.5141</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K78" t="s">
         <v>251</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0.86479997634887695</v>
-      </c>
-      <c r="K78">
-        <v>0.90759998559951782</v>
-      </c>
-      <c r="L78" s="11">
-        <v>0.5141</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F79" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="1">
+        <v>0.87269997596740723</v>
+      </c>
+      <c r="H79">
+        <v>0.93229997158050537</v>
+      </c>
+      <c r="I79" s="11">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H79" t="s">
+      <c r="K79" t="s">
         <v>254</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0.87269997596740723</v>
-      </c>
-      <c r="K79">
-        <v>0.93229997158050537</v>
-      </c>
-      <c r="L79" s="11">
-        <v>0.56559999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F80" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="1">
+        <v>0.88840001821517944</v>
+      </c>
+      <c r="H80">
+        <v>0.92839998006820679</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0.2591</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H80" t="s">
+      <c r="K80" t="s">
         <v>257</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0.88840001821517944</v>
-      </c>
-      <c r="K80">
-        <v>0.92839998006820679</v>
-      </c>
-      <c r="L80" s="11">
-        <v>0.2591</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F81" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="1">
+        <v>0.89550000429153442</v>
+      </c>
+      <c r="H81">
+        <v>0.93459999561309814</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H81" t="s">
+      <c r="K81" t="s">
         <v>260</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="J81" s="1">
-        <v>0.89550000429153442</v>
-      </c>
-      <c r="K81">
-        <v>0.93459999561309814</v>
-      </c>
-      <c r="L81" s="11">
-        <v>0.36930000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -5995,23 +6037,23 @@
       <c r="F82" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="1">
+        <v>0.95249998569488525</v>
+      </c>
+      <c r="H82">
+        <v>0.94590002298355103</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>265</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0.95249998569488525</v>
-      </c>
-      <c r="K82">
-        <v>0.94590002298355103</v>
-      </c>
-      <c r="L82" s="11">
-        <v>0.42509999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6022,23 +6064,23 @@
       <c r="F83" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="1">
+        <v>0.94459998607635498</v>
+      </c>
+      <c r="H83">
+        <v>0.94760000705718994</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K83" t="s">
         <v>268</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0.94459998607635498</v>
-      </c>
-      <c r="K83">
-        <v>0.94760000705718994</v>
-      </c>
-      <c r="L83" s="11">
-        <v>0.31240000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6046,23 +6088,23 @@
       <c r="F84" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="1">
+        <v>0.94520002603530884</v>
+      </c>
+      <c r="H84">
+        <v>0.94050002098083496</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H84" t="s">
+      <c r="K84" t="s">
         <v>271</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0.94520002603530884</v>
-      </c>
-      <c r="K84">
-        <v>0.94050002098083496</v>
-      </c>
-      <c r="L84" s="11">
-        <v>0.29420000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6070,23 +6112,23 @@
       <c r="F85" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="1">
+        <v>0.88139998912811279</v>
+      </c>
+      <c r="H85">
+        <v>0.93250000476837158</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H85" t="s">
+      <c r="K85" t="s">
         <v>274</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0.88139998912811279</v>
-      </c>
-      <c r="K85">
-        <v>0.93250000476837158</v>
-      </c>
-      <c r="L85" s="11">
-        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6094,23 +6136,23 @@
       <c r="F86" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="1">
+        <v>0.88999998569488525</v>
+      </c>
+      <c r="H86">
+        <v>0.94669997692108154</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H86" t="s">
+      <c r="K86" t="s">
         <v>277</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="K86">
-        <v>0.94669997692108154</v>
-      </c>
-      <c r="L86" s="11">
-        <v>0.13089999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6118,23 +6160,23 @@
       <c r="F87" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="1">
+        <v>0.87519997358322144</v>
+      </c>
+      <c r="H87">
+        <v>0.9343000054359436</v>
+      </c>
+      <c r="I87" s="11">
+        <v>0.251</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K87" t="s">
         <v>280</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0.87519997358322144</v>
-      </c>
-      <c r="K87">
-        <v>0.9343000054359436</v>
-      </c>
-      <c r="L87" s="11">
-        <v>0.251</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6142,23 +6184,23 @@
       <c r="F88" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="1">
+        <v>0.94709998369216919</v>
+      </c>
+      <c r="H88">
+        <v>0.95010000467300415</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K88" t="s">
         <v>283</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0.94709998369216919</v>
-      </c>
-      <c r="K88">
-        <v>0.95010000467300415</v>
-      </c>
-      <c r="L88" s="11">
-        <v>0.22589999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6166,23 +6208,23 @@
       <c r="F89" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="1">
+        <v>0.93970000743865967</v>
+      </c>
+      <c r="H89">
+        <v>0.93769997358322144</v>
+      </c>
+      <c r="I89" s="11">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" t="s">
         <v>286</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0.93970000743865967</v>
-      </c>
-      <c r="K89">
-        <v>0.93769997358322144</v>
-      </c>
-      <c r="L89" s="11">
-        <v>6.7299999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6190,23 +6232,23 @@
       <c r="F90" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="1">
+        <v>0.92570000886917114</v>
+      </c>
+      <c r="H90">
+        <v>0.94520002603530884</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K90" t="s">
         <v>289</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.92570000886917114</v>
-      </c>
-      <c r="K90">
-        <v>0.94520002603530884</v>
-      </c>
-      <c r="L90" s="11">
-        <v>0.22439999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6214,23 +6256,23 @@
       <c r="F91" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="1">
+        <v>0.96069997549057007</v>
+      </c>
+      <c r="H91">
+        <v>0.9617999792098999</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
         <v>292</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0.96069997549057007</v>
-      </c>
-      <c r="K91">
-        <v>0.9617999792098999</v>
-      </c>
-      <c r="L91" s="11">
-        <v>0.43669999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -6252,23 +6294,23 @@
       <c r="F92" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="1">
+        <v>0.87080001831054688</v>
+      </c>
+      <c r="H92">
+        <v>0.93070000410079956</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" t="s">
         <v>298</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="J92" s="1">
-        <v>0.87080001831054688</v>
-      </c>
-      <c r="K92">
-        <v>0.93070000410079956</v>
-      </c>
-      <c r="L92" s="11">
-        <v>0.30249999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6278,207 +6320,207 @@
       <c r="F93" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="1">
+        <v>0.86559998989105225</v>
+      </c>
+      <c r="H93">
+        <v>0.92140001058578491</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>301</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="J93" s="1">
-        <v>0.86559998989105225</v>
-      </c>
-      <c r="K93">
-        <v>0.92140001058578491</v>
-      </c>
-      <c r="L93" s="11">
-        <v>0.44159999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F94" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="1">
+        <v>0.8871999979019165</v>
+      </c>
+      <c r="H94">
+        <v>0.92989999055862427</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0.1903</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>304</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0.8871999979019165</v>
-      </c>
-      <c r="K94">
-        <v>0.92989999055862427</v>
-      </c>
-      <c r="L94" s="11">
-        <v>0.1903</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F95" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="1">
+        <v>0.90240001678466797</v>
+      </c>
+      <c r="H95">
+        <v>0.94880002737045288</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>307</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0.90240001678466797</v>
-      </c>
-      <c r="K95">
-        <v>0.94880002737045288</v>
-      </c>
-      <c r="L95" s="11">
-        <v>0.41410000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F96" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="1">
+        <v>0.86210000514984131</v>
+      </c>
+      <c r="H96">
+        <v>0.93279999494552612</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H96" t="s">
+      <c r="K96" t="s">
         <v>310</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0.86210000514984131</v>
-      </c>
-      <c r="K96">
-        <v>0.93279999494552612</v>
-      </c>
-      <c r="L96" s="11">
-        <v>0.31780000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F97" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="1">
+        <v>0.87779998779296875</v>
+      </c>
+      <c r="H97">
+        <v>0.92519998550415039</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H97" t="s">
+      <c r="K97" t="s">
         <v>313</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0.87779998779296875</v>
-      </c>
-      <c r="K97">
-        <v>0.92519998550415039</v>
-      </c>
-      <c r="L97" s="11">
-        <v>0.45390000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F98" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="1">
+        <v>0.88450002670288086</v>
+      </c>
+      <c r="H98">
+        <v>0.91570001840591431</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H98" t="s">
+      <c r="K98" t="s">
         <v>316</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0.88450002670288086</v>
-      </c>
-      <c r="K98">
-        <v>0.91570001840591431</v>
-      </c>
-      <c r="L98" s="11">
-        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F99" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="1">
+        <v>0.87199997901916504</v>
+      </c>
+      <c r="H99">
+        <v>0.91780000925064087</v>
+      </c>
+      <c r="I99" s="11">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H99" t="s">
+      <c r="K99" t="s">
         <v>319</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0.87199997901916504</v>
-      </c>
-      <c r="K99">
-        <v>0.91780000925064087</v>
-      </c>
-      <c r="L99" s="11">
-        <v>0.20660000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F100" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="1">
+        <v>0.87489998340606689</v>
+      </c>
+      <c r="H100">
+        <v>0.91900002956390381</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H100" t="s">
+      <c r="K100" t="s">
         <v>322</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0.87489998340606689</v>
-      </c>
-      <c r="K100">
-        <v>0.91900002956390381</v>
-      </c>
-      <c r="L100" s="11">
-        <v>0.26319999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F101" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="1">
+        <v>0.89349997043609619</v>
+      </c>
+      <c r="H101">
+        <v>0.89509999752044678</v>
+      </c>
+      <c r="I101" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J101" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H101" t="s">
+      <c r="K101" t="s">
         <v>325</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0.89349997043609619</v>
-      </c>
-      <c r="K101">
-        <v>0.89509999752044678</v>
-      </c>
-      <c r="L101" s="11">
-        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -6500,23 +6542,23 @@
       <c r="F102" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" s="1">
+        <v>0.95429998636245728</v>
+      </c>
+      <c r="H102">
+        <v>0.95069998502731323</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="H102" t="s">
+      <c r="K102" t="s">
         <v>331</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="J102" s="1">
-        <v>0.95429998636245728</v>
-      </c>
-      <c r="K102">
-        <v>0.95069998502731323</v>
-      </c>
-      <c r="L102" s="11">
-        <v>0.26740000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6526,207 +6568,207 @@
       <c r="F103" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="1">
+        <v>0.9627000093460083</v>
+      </c>
+      <c r="H103">
+        <v>0.95630002021789551</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0.1542</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H103" t="s">
+      <c r="K103" t="s">
         <v>334</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0.9627000093460083</v>
-      </c>
-      <c r="K103">
-        <v>0.95630002021789551</v>
-      </c>
-      <c r="L103" s="11">
-        <v>0.1542</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F104" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="1">
+        <v>0.92189997434616089</v>
+      </c>
+      <c r="H104">
+        <v>0.94900000095367432</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H104" t="s">
+      <c r="K104" t="s">
         <v>337</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="J104" s="1">
-        <v>0.92189997434616089</v>
-      </c>
-      <c r="K104">
-        <v>0.94900000095367432</v>
-      </c>
-      <c r="L104" s="11">
-        <v>0.39839999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F105" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="1">
+        <v>0.94940000772476196</v>
+      </c>
+      <c r="H105">
+        <v>0.94520002603530884</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H105" t="s">
+      <c r="K105" t="s">
         <v>340</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="L105" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="J105" s="1">
-        <v>0.94940000772476196</v>
-      </c>
-      <c r="K105">
-        <v>0.94520002603530884</v>
-      </c>
-      <c r="L105" s="11">
-        <v>0.28210000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F106" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="1">
+        <v>0.9408000111579895</v>
+      </c>
+      <c r="H106">
+        <v>0.94580000638961792</v>
+      </c>
+      <c r="I106" s="11">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H106" t="s">
+      <c r="K106" t="s">
         <v>23</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="J106" s="1">
-        <v>0.9408000111579895</v>
-      </c>
-      <c r="K106">
-        <v>0.94580000638961792</v>
-      </c>
-      <c r="L106" s="11">
-        <v>0.22739999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F107" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="1">
+        <v>0.96160000562667847</v>
+      </c>
+      <c r="H107">
+        <v>0.95730000734329224</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H107" t="s">
+      <c r="K107" t="s">
         <v>343</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="J107" s="1">
-        <v>0.96160000562667847</v>
-      </c>
-      <c r="K107">
-        <v>0.95730000734329224</v>
-      </c>
-      <c r="L107" s="11">
-        <v>0.37330000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F108" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="1">
+        <v>0.95230001211166382</v>
+      </c>
+      <c r="H108">
+        <v>0.95990002155303955</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0.1109</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>346</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="J108" s="1">
-        <v>0.95230001211166382</v>
-      </c>
-      <c r="K108">
-        <v>0.95990002155303955</v>
-      </c>
-      <c r="L108" s="11">
-        <v>0.1109</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F109" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="1">
+        <v>0.93800002336502075</v>
+      </c>
+      <c r="H109">
+        <v>0.91420000791549683</v>
+      </c>
+      <c r="I109" s="11">
+        <v>0.2445</v>
+      </c>
+      <c r="J109" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H109" t="s">
+      <c r="K109" t="s">
         <v>349</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="J109" s="1">
-        <v>0.93800002336502075</v>
-      </c>
-      <c r="K109">
-        <v>0.91420000791549683</v>
-      </c>
-      <c r="L109" s="11">
-        <v>0.2445</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F110" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="1">
+        <v>0.90850001573562622</v>
+      </c>
+      <c r="H110">
+        <v>0.95200002193450928</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H110" t="s">
+      <c r="K110" t="s">
         <v>352</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="L110" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="J110" s="1">
-        <v>0.90850001573562622</v>
-      </c>
-      <c r="K110">
-        <v>0.95200002193450928</v>
-      </c>
-      <c r="L110" s="11">
-        <v>0.39169999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F111" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="1">
+        <v>0.93440002202987671</v>
+      </c>
+      <c r="H111">
+        <v>0.93129998445510864</v>
+      </c>
+      <c r="I111" s="11">
+        <v>0.1154</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H111" t="s">
+      <c r="K111" t="s">
         <v>355</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="J111" s="1">
-        <v>0.93440002202987671</v>
-      </c>
-      <c r="K111">
-        <v>0.93129998445510864</v>
-      </c>
-      <c r="L111" s="11">
-        <v>0.1154</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -6748,23 +6790,23 @@
       <c r="F112" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="1">
+        <v>0.82969999313354492</v>
+      </c>
+      <c r="H112">
+        <v>0.94300001859664917</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H112" t="s">
+      <c r="K112" t="s">
         <v>361</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="J112" s="1">
-        <v>0.82969999313354492</v>
-      </c>
-      <c r="K112">
-        <v>0.94300001859664917</v>
-      </c>
-      <c r="L112" s="11">
-        <v>0.34189999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6774,207 +6816,207 @@
       <c r="F113" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="1">
+        <v>0.81879997253417969</v>
+      </c>
+      <c r="H113">
+        <v>0.96960002183914185</v>
+      </c>
+      <c r="I113" s="11">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H113" t="s">
+      <c r="K113" t="s">
         <v>73</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="J113" s="1">
-        <v>0.81879997253417969</v>
-      </c>
-      <c r="K113">
-        <v>0.96960002183914185</v>
-      </c>
-      <c r="L113" s="11">
-        <v>0.34370000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F114" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="1">
+        <v>0.87610000371932983</v>
+      </c>
+      <c r="H114">
+        <v>0.93809998035430908</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H114" t="s">
+      <c r="K114" t="s">
         <v>364</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="L114" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="J114" s="1">
-        <v>0.87610000371932983</v>
-      </c>
-      <c r="K114">
-        <v>0.93809998035430908</v>
-      </c>
-      <c r="L114" s="11">
-        <v>0.31080000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F115" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="1">
+        <v>0.88289999961853027</v>
+      </c>
+      <c r="H115">
+        <v>0.94819998741149902</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J115" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="H115" t="s">
+      <c r="K115" t="s">
         <v>367</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="J115" s="1">
-        <v>0.88289999961853027</v>
-      </c>
-      <c r="K115">
-        <v>0.94819998741149902</v>
-      </c>
-      <c r="L115" s="11">
-        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F116" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="1">
+        <v>0.90329998731613159</v>
+      </c>
+      <c r="H116">
+        <v>0.94539999961853027</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0.1512</v>
+      </c>
+      <c r="J116" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="H116" t="s">
+      <c r="K116" t="s">
         <v>370</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="J116" s="1">
-        <v>0.90329998731613159</v>
-      </c>
-      <c r="K116">
-        <v>0.94539999961853027</v>
-      </c>
-      <c r="L116" s="11">
-        <v>0.1512</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F117" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="1">
+        <v>0.9090999960899353</v>
+      </c>
+      <c r="H117">
+        <v>0.94690001010894775</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0.3231</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H117" t="s">
+      <c r="K117" t="s">
         <v>373</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="J117" s="1">
-        <v>0.9090999960899353</v>
-      </c>
-      <c r="K117">
-        <v>0.94690001010894775</v>
-      </c>
-      <c r="L117" s="11">
-        <v>0.3231</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F118" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="1">
+        <v>0.93239998817443848</v>
+      </c>
+      <c r="H118">
+        <v>0.944100022315979</v>
+      </c>
+      <c r="I118" s="11">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="J118" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H118" t="s">
+      <c r="K118" t="s">
         <v>76</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="J118" s="1">
-        <v>0.93239998817443848</v>
-      </c>
-      <c r="K118">
-        <v>0.944100022315979</v>
-      </c>
-      <c r="L118" s="11">
-        <v>0.30509999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F119" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="1">
+        <v>0.91829997301101685</v>
+      </c>
+      <c r="H119">
+        <v>0.94139999151229858</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="J119" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H119" t="s">
+      <c r="K119" t="s">
         <v>376</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="L119" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0.91829997301101685</v>
-      </c>
-      <c r="K119">
-        <v>0.94139999151229858</v>
-      </c>
-      <c r="L119" s="11">
-        <v>0.41260000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F120" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="1">
+        <v>0.81840002536773682</v>
+      </c>
+      <c r="H120">
+        <v>0.95980000495910645</v>
+      </c>
+      <c r="I120" s="11">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="J120" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H120" t="s">
+      <c r="K120" t="s">
         <v>379</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="L120" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="J120" s="1">
-        <v>0.81840002536773682</v>
-      </c>
-      <c r="K120">
-        <v>0.95980000495910645</v>
-      </c>
-      <c r="L120" s="11">
-        <v>0.44690000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F121" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="1">
+        <v>0.9067000150680542</v>
+      </c>
+      <c r="H121">
+        <v>0.95069998502731323</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J121" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H121" t="s">
+      <c r="K121" t="s">
         <v>382</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="L121" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="J121" s="1">
-        <v>0.9067000150680542</v>
-      </c>
-      <c r="K121">
-        <v>0.95069998502731323</v>
-      </c>
-      <c r="L121" s="11">
-        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="255" x14ac:dyDescent="0.25">
@@ -6996,23 +7038,23 @@
       <c r="F122" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="1">
+        <v>0.89389997720718384</v>
+      </c>
+      <c r="H122">
+        <v>0.94650000333786011</v>
+      </c>
+      <c r="I122" s="11">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="J122" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="H122" t="s">
+      <c r="K122" t="s">
         <v>388</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="L122" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="J122" s="1">
-        <v>0.89389997720718384</v>
-      </c>
-      <c r="K122">
-        <v>0.94650000333786011</v>
-      </c>
-      <c r="L122" s="11">
-        <v>0.31209999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7022,207 +7064,207 @@
       <c r="F123" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" s="1">
+        <v>0.95029997825622559</v>
+      </c>
+      <c r="H123">
+        <v>0.95740002393722534</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="H123" t="s">
+      <c r="K123" t="s">
         <v>391</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="J123" s="1">
-        <v>0.95029997825622559</v>
-      </c>
-      <c r="K123">
-        <v>0.95740002393722534</v>
-      </c>
-      <c r="L123" s="11">
-        <v>0.38109999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F124" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="1">
+        <v>0.93360000848770142</v>
+      </c>
+      <c r="H124">
+        <v>0.95020002126693726</v>
+      </c>
+      <c r="I124" s="11">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="J124" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H124" t="s">
+      <c r="K124" t="s">
         <v>394</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="J124" s="1">
-        <v>0.93360000848770142</v>
-      </c>
-      <c r="K124">
-        <v>0.95020002126693726</v>
-      </c>
-      <c r="L124" s="11">
-        <v>0.42109999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F125" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="1">
+        <v>0.94789999723434448</v>
+      </c>
+      <c r="H125">
+        <v>0.95169997215270996</v>
+      </c>
+      <c r="I125" s="11">
+        <v>0.3382</v>
+      </c>
+      <c r="J125" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H125" t="s">
+      <c r="K125" t="s">
         <v>397</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="J125" s="1">
-        <v>0.94789999723434448</v>
-      </c>
-      <c r="K125">
-        <v>0.95169997215270996</v>
-      </c>
-      <c r="L125" s="11">
-        <v>0.3382</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F126" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" s="1">
+        <v>0.89600002765655518</v>
+      </c>
+      <c r="H126">
+        <v>0.9570000171661377</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J126" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H126" t="s">
+      <c r="K126" t="s">
         <v>400</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="L126" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="J126" s="1">
-        <v>0.89600002765655518</v>
-      </c>
-      <c r="K126">
-        <v>0.9570000171661377</v>
-      </c>
-      <c r="L126" s="11">
-        <v>0.52969999999999995</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F127" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="1">
+        <v>0.92430001497268677</v>
+      </c>
+      <c r="H127">
+        <v>0.93019998073577881</v>
+      </c>
+      <c r="I127" s="11">
+        <v>0.3039</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="H127" t="s">
+      <c r="K127" t="s">
         <v>403</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="J127" s="1">
-        <v>0.92430001497268677</v>
-      </c>
-      <c r="K127">
-        <v>0.93019998073577881</v>
-      </c>
-      <c r="L127" s="11">
-        <v>0.3039</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F128" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="1">
+        <v>0.86970001459121704</v>
+      </c>
+      <c r="H128">
+        <v>0.94889998435974121</v>
+      </c>
+      <c r="I128" s="11">
+        <v>0.3493</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="H128" t="s">
+      <c r="K128" t="s">
         <v>406</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="L128" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="J128" s="1">
-        <v>0.86970001459121704</v>
-      </c>
-      <c r="K128">
-        <v>0.94889998435974121</v>
-      </c>
-      <c r="L128" s="11">
-        <v>0.3493</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F129" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="1">
+        <v>0.95929998159408569</v>
+      </c>
+      <c r="H129">
+        <v>0.94749999046325684</v>
+      </c>
+      <c r="I129" s="11">
+        <v>0.4637</v>
+      </c>
+      <c r="J129" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="H129" t="s">
+      <c r="K129" t="s">
         <v>409</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="L129" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="J129" s="1">
-        <v>0.95929998159408569</v>
-      </c>
-      <c r="K129">
-        <v>0.94749999046325684</v>
-      </c>
-      <c r="L129" s="11">
-        <v>0.4637</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F130" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="1">
+        <v>0.95300000905990601</v>
+      </c>
+      <c r="H130">
+        <v>0.94450002908706665</v>
+      </c>
+      <c r="I130" s="11">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="J130" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H130" t="s">
+      <c r="K130" t="s">
         <v>412</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="J130" s="1">
-        <v>0.95300000905990601</v>
-      </c>
-      <c r="K130">
-        <v>0.94450002908706665</v>
-      </c>
-      <c r="L130" s="11">
-        <v>0.39069999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F131" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="1">
+        <v>0.93269997835159302</v>
+      </c>
+      <c r="H131">
+        <v>0.96130001544952393</v>
+      </c>
+      <c r="I131" s="11">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="H131" t="s">
+      <c r="K131" t="s">
         <v>415</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="L131" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="J131" s="1">
-        <v>0.93269997835159302</v>
-      </c>
-      <c r="K131">
-        <v>0.96130001544952393</v>
-      </c>
-      <c r="L131" s="11">
-        <v>0.27839999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -7244,23 +7286,23 @@
       <c r="F132" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="1">
+        <v>0.84119999408721924</v>
+      </c>
+      <c r="H132">
+        <v>0.92489999532699585</v>
+      </c>
+      <c r="I132" s="11">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="J132" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H132" t="s">
+      <c r="K132" t="s">
         <v>421</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="L132" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="J132" s="1">
-        <v>0.84119999408721924</v>
-      </c>
-      <c r="K132">
-        <v>0.92489999532699585</v>
-      </c>
-      <c r="L132" s="11">
-        <v>0.36480000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7270,207 +7312,207 @@
       <c r="F133" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="1">
+        <v>0.90479999780654907</v>
+      </c>
+      <c r="H133">
+        <v>0.92779999971389771</v>
+      </c>
+      <c r="I133" s="11">
+        <v>0.3004</v>
+      </c>
+      <c r="J133" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="H133" t="s">
+      <c r="K133" t="s">
         <v>424</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="L133" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="J133" s="1">
-        <v>0.90479999780654907</v>
-      </c>
-      <c r="K133">
-        <v>0.92779999971389771</v>
-      </c>
-      <c r="L133" s="11">
-        <v>0.3004</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F134" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="1">
+        <v>0.91900002956390381</v>
+      </c>
+      <c r="H134">
+        <v>0.93059998750686646</v>
+      </c>
+      <c r="I134" s="11">
+        <v>0.3498</v>
+      </c>
+      <c r="J134" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H134" t="s">
+      <c r="K134" t="s">
         <v>184</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="J134" s="1">
-        <v>0.91900002956390381</v>
-      </c>
-      <c r="K134">
-        <v>0.93059998750686646</v>
-      </c>
-      <c r="L134" s="11">
-        <v>0.3498</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F135" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="1">
+        <v>0.85009998083114624</v>
+      </c>
+      <c r="H135">
+        <v>0.94389998912811279</v>
+      </c>
+      <c r="I135" s="11">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H135" t="s">
+      <c r="K135" t="s">
         <v>427</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="J135" s="1">
-        <v>0.85009998083114624</v>
-      </c>
-      <c r="K135">
-        <v>0.94389998912811279</v>
-      </c>
-      <c r="L135" s="11">
-        <v>0.38219999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F136" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" s="1">
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="H136">
+        <v>0.94379997253417969</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H136" t="s">
+      <c r="K136" t="s">
         <v>430</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="J136" s="1">
-        <v>0.8529999852180481</v>
-      </c>
-      <c r="K136">
-        <v>0.94379997253417969</v>
-      </c>
-      <c r="L136" s="11">
-        <v>0.26719999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F137" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" s="1">
+        <v>0.87050002813339233</v>
+      </c>
+      <c r="H137">
+        <v>0.95139998197555542</v>
+      </c>
+      <c r="I137" s="11">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H137" t="s">
+      <c r="K137" t="s">
         <v>433</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="J137" s="1">
-        <v>0.87050002813339233</v>
-      </c>
-      <c r="K137">
-        <v>0.95139998197555542</v>
-      </c>
-      <c r="L137" s="11">
-        <v>0.29310000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F138" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" s="1">
+        <v>0.9221000075340271</v>
+      </c>
+      <c r="H138">
+        <v>0.94599997997283936</v>
+      </c>
+      <c r="I138" s="11">
+        <v>0.3911</v>
+      </c>
+      <c r="J138" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H138" t="s">
+      <c r="K138" t="s">
         <v>436</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="L138" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="J138" s="1">
-        <v>0.9221000075340271</v>
-      </c>
-      <c r="K138">
-        <v>0.94599997997283936</v>
-      </c>
-      <c r="L138" s="11">
-        <v>0.3911</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F139" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="1">
+        <v>0.89969998598098755</v>
+      </c>
+      <c r="H139">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="I139" s="11">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="J139" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H139" t="s">
+      <c r="K139" t="s">
         <v>439</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="L139" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="J139" s="1">
-        <v>0.89969998598098755</v>
-      </c>
-      <c r="K139">
-        <v>0.94279998540878296</v>
-      </c>
-      <c r="L139" s="11">
-        <v>0.24779999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F140" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="1">
+        <v>0.94120001792907715</v>
+      </c>
+      <c r="H140">
+        <v>0.93959999084472656</v>
+      </c>
+      <c r="I140" s="11">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="J140" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="H140" t="s">
+      <c r="K140" t="s">
         <v>442</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="J140" s="1">
-        <v>0.94120001792907715</v>
-      </c>
-      <c r="K140">
-        <v>0.93959999084472656</v>
-      </c>
-      <c r="L140" s="11">
-        <v>0.24590000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F141" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="1">
+        <v>0.87159997224807739</v>
+      </c>
+      <c r="H141">
+        <v>0.91140002012252808</v>
+      </c>
+      <c r="I141" s="11">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="H141" t="s">
+      <c r="K141" t="s">
         <v>445</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="J141" s="1">
-        <v>0.87159997224807739</v>
-      </c>
-      <c r="K141">
-        <v>0.91140002012252808</v>
-      </c>
-      <c r="L141" s="11">
-        <v>0.26740000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -7492,23 +7534,23 @@
       <c r="F142" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G142" s="1">
+        <v>0.93029999732971191</v>
+      </c>
+      <c r="H142">
+        <v>0.92960000038146973</v>
+      </c>
+      <c r="I142" s="11">
+        <v>0.315</v>
+      </c>
+      <c r="J142" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H142" t="s">
+      <c r="K142" t="s">
         <v>451</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="L142" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="J142" s="1">
-        <v>0.93029999732971191</v>
-      </c>
-      <c r="K142">
-        <v>0.92960000038146973</v>
-      </c>
-      <c r="L142" s="11">
-        <v>0.315</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7518,207 +7560,207 @@
       <c r="F143" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" s="1">
+        <v>0.84689998626708984</v>
+      </c>
+      <c r="H143">
+        <v>0.89410001039505005</v>
+      </c>
+      <c r="I143" s="11">
+        <v>0.1724</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="H143" t="s">
+      <c r="K143" t="s">
         <v>454</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="L143" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="J143" s="1">
-        <v>0.84689998626708984</v>
-      </c>
-      <c r="K143">
-        <v>0.89410001039505005</v>
-      </c>
-      <c r="L143" s="11">
-        <v>0.1724</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F144" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" s="1">
+        <v>0.89639997482299805</v>
+      </c>
+      <c r="H144">
+        <v>0.91350001096725464</v>
+      </c>
+      <c r="I144" s="11">
+        <v>0.218</v>
+      </c>
+      <c r="J144" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="H144" t="s">
+      <c r="K144" t="s">
         <v>123</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="L144" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="J144" s="1">
-        <v>0.89639997482299805</v>
-      </c>
-      <c r="K144">
-        <v>0.91350001096725464</v>
-      </c>
-      <c r="L144" s="11">
-        <v>0.218</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F145" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" s="1">
+        <v>0.88080000877380371</v>
+      </c>
+      <c r="H145">
+        <v>0.90570002794265747</v>
+      </c>
+      <c r="I145" s="11">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="J145" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="H145" t="s">
+      <c r="K145" t="s">
         <v>459</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="L145" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="J145" s="1">
-        <v>0.88080000877380371</v>
-      </c>
-      <c r="K145">
-        <v>0.90570002794265747</v>
-      </c>
-      <c r="L145" s="11">
-        <v>0.28489999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F146" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G146" s="1">
+        <v>0.91960000991821289</v>
+      </c>
+      <c r="H146">
+        <v>0.8871999979019165</v>
+      </c>
+      <c r="I146" s="11">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H146" t="s">
+      <c r="K146" t="s">
         <v>462</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="L146" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="J146" s="1">
-        <v>0.91960000991821289</v>
-      </c>
-      <c r="K146">
-        <v>0.8871999979019165</v>
-      </c>
-      <c r="L146" s="11">
-        <v>0.21540000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F147" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" s="1">
+        <v>0.93389999866485596</v>
+      </c>
+      <c r="H147">
+        <v>0.88789999485015869</v>
+      </c>
+      <c r="I147" s="11">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="J147" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="H147" t="s">
+      <c r="K147" t="s">
         <v>465</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="L147" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="J147" s="1">
-        <v>0.93389999866485596</v>
-      </c>
-      <c r="K147">
-        <v>0.88789999485015869</v>
-      </c>
-      <c r="L147" s="11">
-        <v>0.30480000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F148" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="1">
+        <v>0.90530002117156982</v>
+      </c>
+      <c r="H148">
+        <v>0.90640002489089966</v>
+      </c>
+      <c r="I148" s="11">
+        <v>0.3236</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="H148" t="s">
+      <c r="K148" t="s">
         <v>468</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="L148" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="J148" s="1">
-        <v>0.90530002117156982</v>
-      </c>
-      <c r="K148">
-        <v>0.90640002489089966</v>
-      </c>
-      <c r="L148" s="11">
-        <v>0.3236</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F149" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="G149" s="1">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="H149">
+        <v>0.88999998569488525</v>
+      </c>
+      <c r="I149" s="11">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="H149" t="s">
+      <c r="K149" t="s">
         <v>471</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="J149" s="1">
-        <v>0.86299997568130493</v>
-      </c>
-      <c r="K149">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="L149" s="11">
-        <v>0.22309999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F150" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G150" s="1">
+        <v>0.91509997844696045</v>
+      </c>
+      <c r="H150">
+        <v>0.91259998083114624</v>
+      </c>
+      <c r="I150" s="11">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="J150" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H150" t="s">
+      <c r="K150" t="s">
         <v>474</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="L150" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="J150" s="1">
-        <v>0.91509997844696045</v>
-      </c>
-      <c r="K150">
-        <v>0.91259998083114624</v>
-      </c>
-      <c r="L150" s="11">
-        <v>0.30349999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F151" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="G151" s="1">
+        <v>0.88069999217987061</v>
+      </c>
+      <c r="H151">
+        <v>0.90410000085830688</v>
+      </c>
+      <c r="I151" s="11">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="J151" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="H151" t="s">
+      <c r="K151" t="s">
         <v>477</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0.88069999217987061</v>
-      </c>
-      <c r="K151">
-        <v>0.90410000085830688</v>
-      </c>
-      <c r="L151" s="11">
-        <v>0.22850000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -7740,23 +7782,23 @@
       <c r="F152" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="1">
+        <v>0.91839998960494995</v>
+      </c>
+      <c r="H152">
+        <v>0.9506000280380249</v>
+      </c>
+      <c r="I152" s="11">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="H152" t="s">
+      <c r="K152" t="s">
         <v>483</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="L152" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="J152" s="1">
-        <v>0.91839998960494995</v>
-      </c>
-      <c r="K152">
-        <v>0.9506000280380249</v>
-      </c>
-      <c r="L152" s="11">
-        <v>0.40579999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7766,207 +7808,207 @@
       <c r="F153" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="G153" s="1">
+        <v>0.95149999856948853</v>
+      </c>
+      <c r="H153">
+        <v>0.95730000734329224</v>
+      </c>
+      <c r="I153" s="11">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H153" t="s">
+      <c r="K153" t="s">
         <v>486</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="J153" s="1">
-        <v>0.95149999856948853</v>
-      </c>
-      <c r="K153">
-        <v>0.95730000734329224</v>
-      </c>
-      <c r="L153" s="11">
-        <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F154" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G154" s="4" t="s">
+      <c r="G154" s="1">
+        <v>0.91579997539520264</v>
+      </c>
+      <c r="H154">
+        <v>0.96139997243881226</v>
+      </c>
+      <c r="I154" s="11">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="J154" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="H154" t="s">
+      <c r="K154" t="s">
         <v>489</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="L154" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="J154" s="1">
-        <v>0.91579997539520264</v>
-      </c>
-      <c r="K154">
-        <v>0.96139997243881226</v>
-      </c>
-      <c r="L154" s="11">
-        <v>0.56879999999999997</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F155" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="G155" s="1">
+        <v>0.89850002527236938</v>
+      </c>
+      <c r="H155">
+        <v>0.94989997148513794</v>
+      </c>
+      <c r="I155" s="11">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="H155" t="s">
+      <c r="K155" t="s">
         <v>492</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0.89850002527236938</v>
-      </c>
-      <c r="K155">
-        <v>0.94989997148513794</v>
-      </c>
-      <c r="L155" s="11">
-        <v>0.34949999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F156" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="G156" s="1">
+        <v>0.86449998617172241</v>
+      </c>
+      <c r="H156">
+        <v>0.94700002670288086</v>
+      </c>
+      <c r="I156" s="11">
+        <v>0.2833</v>
+      </c>
+      <c r="J156" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="H156" t="s">
+      <c r="K156" t="s">
         <v>495</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="L156" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="J156" s="1">
-        <v>0.86449998617172241</v>
-      </c>
-      <c r="K156">
-        <v>0.94700002670288086</v>
-      </c>
-      <c r="L156" s="11">
-        <v>0.2833</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F157" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="G157" s="1">
+        <v>0.92900002002716064</v>
+      </c>
+      <c r="H157">
+        <v>0.93169999122619629</v>
+      </c>
+      <c r="I157" s="11">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="H157" t="s">
+      <c r="K157" t="s">
         <v>394</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="L157" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="J157" s="1">
-        <v>0.92900002002716064</v>
-      </c>
-      <c r="K157">
-        <v>0.93169999122619629</v>
-      </c>
-      <c r="L157" s="11">
-        <v>0.44130000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F158" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="1">
+        <v>0.93559998273849487</v>
+      </c>
+      <c r="H158">
+        <v>0.93930000066757202</v>
+      </c>
+      <c r="I158" s="11">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="H158" t="s">
+      <c r="K158" t="s">
         <v>500</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="J158" s="1">
-        <v>0.93559998273849487</v>
-      </c>
-      <c r="K158">
-        <v>0.93930000066757202</v>
-      </c>
-      <c r="L158" s="11">
-        <v>0.35149999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F159" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="1">
+        <v>0.93150001764297485</v>
+      </c>
+      <c r="H159">
+        <v>0.93300002813339233</v>
+      </c>
+      <c r="I159" s="11">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H159" t="s">
+      <c r="K159" t="s">
         <v>503</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="L159" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="J159" s="1">
-        <v>0.93150001764297485</v>
-      </c>
-      <c r="K159">
-        <v>0.93300002813339233</v>
-      </c>
-      <c r="L159" s="11">
-        <v>0.36020000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F160" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="1">
+        <v>0.94739997386932373</v>
+      </c>
+      <c r="H160">
+        <v>0.9625999927520752</v>
+      </c>
+      <c r="I160" s="11">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="J160" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H160" t="s">
+      <c r="K160" t="s">
         <v>506</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="L160" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="J160" s="1">
-        <v>0.94739997386932373</v>
-      </c>
-      <c r="K160">
-        <v>0.9625999927520752</v>
-      </c>
-      <c r="L160" s="11">
-        <v>0.35449999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F161" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="1">
+        <v>0.94300001859664917</v>
+      </c>
+      <c r="H161">
+        <v>0.94819998741149902</v>
+      </c>
+      <c r="I161" s="11">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H161" t="s">
+      <c r="K161" t="s">
         <v>509</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="L161" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="J161" s="1">
-        <v>0.94300001859664917</v>
-      </c>
-      <c r="K161">
-        <v>0.94819998741149902</v>
-      </c>
-      <c r="L161" s="11">
-        <v>0.38819999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -7988,23 +8030,23 @@
       <c r="F162" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G162" s="4" t="s">
+      <c r="G162" s="1">
+        <v>0.94209998846054077</v>
+      </c>
+      <c r="H162">
+        <v>0.96090000867843628</v>
+      </c>
+      <c r="I162" s="11">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="H162" t="s">
+      <c r="K162" t="s">
         <v>515</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="L162" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="J162" s="1">
-        <v>0.94209998846054077</v>
-      </c>
-      <c r="K162">
-        <v>0.96090000867843628</v>
-      </c>
-      <c r="L162" s="11">
-        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8014,207 +8056,207 @@
       <c r="F163" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="G163" s="1">
+        <v>0.91670000553131104</v>
+      </c>
+      <c r="H163">
+        <v>0.94220000505447388</v>
+      </c>
+      <c r="I163" s="11">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="H163" t="s">
+      <c r="K163" t="s">
         <v>518</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="L163" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="J163" s="1">
-        <v>0.91670000553131104</v>
-      </c>
-      <c r="K163">
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="L163" s="11">
-        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F164" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="1">
+        <v>0.92979997396469116</v>
+      </c>
+      <c r="H164">
+        <v>0.93730002641677856</v>
+      </c>
+      <c r="I164" s="11">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="J164" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="H164" t="s">
+      <c r="K164" t="s">
         <v>521</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="L164" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="J164" s="1">
-        <v>0.92979997396469116</v>
-      </c>
-      <c r="K164">
-        <v>0.93730002641677856</v>
-      </c>
-      <c r="L164" s="11">
-        <v>0.37709999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F165" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G165" s="4" t="s">
+      <c r="G165" s="1">
+        <v>0.94139999151229858</v>
+      </c>
+      <c r="H165">
+        <v>0.94379997253417969</v>
+      </c>
+      <c r="I165" s="11">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H165" t="s">
+      <c r="K165" t="s">
         <v>524</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="L165" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="J165" s="1">
-        <v>0.94139999151229858</v>
-      </c>
-      <c r="K165">
-        <v>0.94379997253417969</v>
-      </c>
-      <c r="L165" s="11">
-        <v>0.28210000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F166" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G166" s="4" t="s">
+      <c r="G166" s="1">
+        <v>0.94160002470016479</v>
+      </c>
+      <c r="H166">
+        <v>0.95209997892379761</v>
+      </c>
+      <c r="I166" s="11">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="J166" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="H166" t="s">
+      <c r="K166" t="s">
         <v>527</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="L166" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="J166" s="1">
-        <v>0.94160002470016479</v>
-      </c>
-      <c r="K166">
-        <v>0.95209997892379761</v>
-      </c>
-      <c r="L166" s="11">
-        <v>0.37190000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F167" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G167" s="4" t="s">
+      <c r="G167" s="1">
+        <v>0.91030001640319824</v>
+      </c>
+      <c r="H167">
+        <v>0.93800002336502075</v>
+      </c>
+      <c r="I167" s="11">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="J167" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H167" t="s">
+      <c r="K167" t="s">
         <v>530</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="L167" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="J167" s="1">
-        <v>0.91030001640319824</v>
-      </c>
-      <c r="K167">
-        <v>0.93800002336502075</v>
-      </c>
-      <c r="L167" s="11">
-        <v>0.42620000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F168" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G168" s="4" t="s">
+      <c r="G168" s="1">
+        <v>0.92269998788833618</v>
+      </c>
+      <c r="H168">
+        <v>0.93290001153945923</v>
+      </c>
+      <c r="I168" s="11">
+        <v>0.4738</v>
+      </c>
+      <c r="J168" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="H168" t="s">
+      <c r="K168" t="s">
         <v>533</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="L168" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="J168" s="1">
-        <v>0.92269998788833618</v>
-      </c>
-      <c r="K168">
-        <v>0.93290001153945923</v>
-      </c>
-      <c r="L168" s="11">
-        <v>0.4738</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F169" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G169" s="4" t="s">
+      <c r="G169" s="1">
+        <v>0.90130001306533813</v>
+      </c>
+      <c r="H169">
+        <v>0.93159997463226318</v>
+      </c>
+      <c r="I169" s="11">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H169" t="s">
+      <c r="K169" t="s">
         <v>536</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="L169" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="J169" s="1">
-        <v>0.90130001306533813</v>
-      </c>
-      <c r="K169">
-        <v>0.93159997463226318</v>
-      </c>
-      <c r="L169" s="11">
-        <v>0.37109999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F170" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="1">
+        <v>0.91449999809265137</v>
+      </c>
+      <c r="H170">
+        <v>0.94260001182556152</v>
+      </c>
+      <c r="I170" s="11">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="J170" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="H170" t="s">
+      <c r="K170" t="s">
         <v>539</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="L170" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="J170" s="1">
-        <v>0.91449999809265137</v>
-      </c>
-      <c r="K170">
-        <v>0.94260001182556152</v>
-      </c>
-      <c r="L170" s="11">
-        <v>0.55779999999999996</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F171" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G171" s="4" t="s">
+      <c r="G171" s="1">
+        <v>0.91500002145767212</v>
+      </c>
+      <c r="H171">
+        <v>0.96899998188018799</v>
+      </c>
+      <c r="I171" s="11">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="J171" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="H171" t="s">
+      <c r="K171" t="s">
         <v>542</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="L171" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="J171" s="1">
-        <v>0.91500002145767212</v>
-      </c>
-      <c r="K171">
-        <v>0.96899998188018799</v>
-      </c>
-      <c r="L171" s="11">
-        <v>0.30009999999999998</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -8236,23 +8278,23 @@
       <c r="F172" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="G172" s="1">
+        <v>0.90240001678466797</v>
+      </c>
+      <c r="H172">
+        <v>0.93720000982284546</v>
+      </c>
+      <c r="I172" s="11">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="J172" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="H172" t="s">
+      <c r="K172" t="s">
         <v>548</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="J172" s="1">
-        <v>0.90240001678466797</v>
-      </c>
-      <c r="K172">
-        <v>0.93720000982284546</v>
-      </c>
-      <c r="L172" s="11">
-        <v>0.22839999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8262,207 +8304,207 @@
       <c r="F173" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G173" s="1">
+        <v>0.94859999418258667</v>
+      </c>
+      <c r="H173">
+        <v>0.95690000057220459</v>
+      </c>
+      <c r="I173" s="11">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="J173" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="H173" t="s">
+      <c r="K173" t="s">
         <v>551</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="L173" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="J173" s="1">
-        <v>0.94859999418258667</v>
-      </c>
-      <c r="K173">
-        <v>0.95690000057220459</v>
-      </c>
-      <c r="L173" s="11">
-        <v>0.34670000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F174" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="G174" s="1">
+        <v>0.92040002346038818</v>
+      </c>
+      <c r="H174">
+        <v>0.92500001192092896</v>
+      </c>
+      <c r="I174" s="11">
+        <v>0.3352</v>
+      </c>
+      <c r="J174" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="H174" t="s">
+      <c r="K174" t="s">
         <v>554</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="L174" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="J174" s="1">
-        <v>0.92040002346038818</v>
-      </c>
-      <c r="K174">
-        <v>0.92500001192092896</v>
-      </c>
-      <c r="L174" s="11">
-        <v>0.3352</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F175" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="G175" s="1">
+        <v>0.96210002899169922</v>
+      </c>
+      <c r="H175">
+        <v>0.95770001411437988</v>
+      </c>
+      <c r="I175" s="11">
+        <v>0.3226</v>
+      </c>
+      <c r="J175" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="H175" t="s">
+      <c r="K175" t="s">
         <v>557</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="L175" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="J175" s="1">
-        <v>0.96210002899169922</v>
-      </c>
-      <c r="K175">
-        <v>0.95770001411437988</v>
-      </c>
-      <c r="L175" s="11">
-        <v>0.3226</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F176" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G176" s="4" t="s">
+      <c r="G176" s="1">
+        <v>0.90030002593994141</v>
+      </c>
+      <c r="H176">
+        <v>0.93610000610351563</v>
+      </c>
+      <c r="I176" s="11">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="J176" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="H176" t="s">
+      <c r="K176" t="s">
         <v>560</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="L176" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="J176" s="1">
-        <v>0.90030002593994141</v>
-      </c>
-      <c r="K176">
-        <v>0.93610000610351563</v>
-      </c>
-      <c r="L176" s="11">
-        <v>0.44390000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F177" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G177" s="4" t="s">
+      <c r="G177" s="1">
+        <v>0.96100002527236938</v>
+      </c>
+      <c r="H177">
+        <v>0.94510000944137573</v>
+      </c>
+      <c r="I177" s="11">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="J177" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="H177" t="s">
+      <c r="K177" t="s">
         <v>563</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="L177" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="J177" s="1">
-        <v>0.96100002527236938</v>
-      </c>
-      <c r="K177">
-        <v>0.94510000944137573</v>
-      </c>
-      <c r="L177" s="11">
-        <v>0.33539999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F178" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="G178" s="4" t="s">
+      <c r="G178" s="1">
+        <v>0.93489998579025269</v>
+      </c>
+      <c r="H178">
+        <v>0.94300001859664917</v>
+      </c>
+      <c r="I178" s="11">
+        <v>0.32919999999999999</v>
+      </c>
+      <c r="J178" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="H178" t="s">
+      <c r="K178" t="s">
         <v>566</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="L178" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="J178" s="1">
-        <v>0.93489998579025269</v>
-      </c>
-      <c r="K178">
-        <v>0.94300001859664917</v>
-      </c>
-      <c r="L178" s="11">
-        <v>0.32919999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F179" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="G179" s="4" t="s">
+      <c r="G179" s="1">
+        <v>0.93010002374649048</v>
+      </c>
+      <c r="H179">
+        <v>0.93180000782012939</v>
+      </c>
+      <c r="I179" s="11">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="J179" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="H179" t="s">
+      <c r="K179" t="s">
         <v>569</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="L179" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="J179" s="1">
-        <v>0.93010002374649048</v>
-      </c>
-      <c r="K179">
-        <v>0.93180000782012939</v>
-      </c>
-      <c r="L179" s="11">
-        <v>0.38740000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F180" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="G180" s="1">
+        <v>0.94910001754760742</v>
+      </c>
+      <c r="H180">
+        <v>0.9593999981880188</v>
+      </c>
+      <c r="I180" s="11">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J180" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="H180" t="s">
+      <c r="K180" t="s">
         <v>572</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="L180" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="J180" s="1">
-        <v>0.94910001754760742</v>
-      </c>
-      <c r="K180">
-        <v>0.9593999981880188</v>
-      </c>
-      <c r="L180" s="11">
-        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F181" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G181" s="1">
+        <v>0.94669997692108154</v>
+      </c>
+      <c r="H181">
+        <v>0.95149999856948853</v>
+      </c>
+      <c r="I181" s="11">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="J181" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="H181" t="s">
+      <c r="K181" t="s">
         <v>575</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="L181" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="J181" s="1">
-        <v>0.94669997692108154</v>
-      </c>
-      <c r="K181">
-        <v>0.95149999856948853</v>
-      </c>
-      <c r="L181" s="11">
-        <v>0.35849999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="255" x14ac:dyDescent="0.25">
@@ -8484,23 +8526,23 @@
       <c r="F182" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="G182" s="4" t="s">
+      <c r="G182" s="1">
+        <v>0.91769999265670776</v>
+      </c>
+      <c r="H182">
+        <v>0.94459998607635498</v>
+      </c>
+      <c r="I182" s="11">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="J182" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="H182" t="s">
+      <c r="K182" t="s">
         <v>581</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="L182" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="J182" s="1">
-        <v>0.91769999265670776</v>
-      </c>
-      <c r="K182">
-        <v>0.94459998607635498</v>
-      </c>
-      <c r="L182" s="11">
-        <v>0.34150000000000003</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8510,207 +8552,207 @@
       <c r="F183" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="G183" s="4" t="s">
+      <c r="G183" s="1">
+        <v>0.94019997119903564</v>
+      </c>
+      <c r="H183">
+        <v>0.96009999513626099</v>
+      </c>
+      <c r="I183" s="11">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="J183" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="H183" t="s">
+      <c r="K183" t="s">
         <v>584</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="L183" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="J183" s="1">
-        <v>0.94019997119903564</v>
-      </c>
-      <c r="K183">
-        <v>0.96009999513626099</v>
-      </c>
-      <c r="L183" s="11">
-        <v>0.19059999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F184" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="G184" s="4" t="s">
+      <c r="G184" s="1">
+        <v>0.93180000782012939</v>
+      </c>
+      <c r="H184">
+        <v>0.91979998350143433</v>
+      </c>
+      <c r="I184" s="11">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="J184" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="H184" t="s">
+      <c r="K184" t="s">
         <v>355</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="L184" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="J184" s="1">
-        <v>0.93180000782012939</v>
-      </c>
-      <c r="K184">
-        <v>0.91979998350143433</v>
-      </c>
-      <c r="L184" s="11">
-        <v>0.27960000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F185" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="G185" s="1">
+        <v>0.91939997673034668</v>
+      </c>
+      <c r="H185">
+        <v>0.94429999589920044</v>
+      </c>
+      <c r="I185" s="11">
+        <v>0.3372</v>
+      </c>
+      <c r="J185" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="H185" t="s">
+      <c r="K185" t="s">
         <v>589</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="L185" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="J185" s="1">
-        <v>0.91939997673034668</v>
-      </c>
-      <c r="K185">
-        <v>0.94429999589920044</v>
-      </c>
-      <c r="L185" s="11">
-        <v>0.3372</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F186" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="G186" s="4" t="s">
+      <c r="G186" s="1">
+        <v>0.9406999945640564</v>
+      </c>
+      <c r="H186">
+        <v>0.95090001821517944</v>
+      </c>
+      <c r="I186" s="11">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="J186" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="H186" t="s">
+      <c r="K186" t="s">
         <v>592</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="L186" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="J186" s="1">
-        <v>0.9406999945640564</v>
-      </c>
-      <c r="K186">
-        <v>0.95090001821517944</v>
-      </c>
-      <c r="L186" s="11">
-        <v>0.30919999999999997</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F187" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="G187" s="4" t="s">
+      <c r="G187" s="1">
+        <v>0.92699998617172241</v>
+      </c>
+      <c r="H187">
+        <v>0.92239999771118164</v>
+      </c>
+      <c r="I187" s="11">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="J187" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="H187" t="s">
+      <c r="K187" t="s">
         <v>595</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="L187" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="J187" s="1">
-        <v>0.92699998617172241</v>
-      </c>
-      <c r="K187">
-        <v>0.92239999771118164</v>
-      </c>
-      <c r="L187" s="11">
-        <v>0.26269999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F188" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G188" s="4" t="s">
+      <c r="G188" s="1">
+        <v>0.93470001220703125</v>
+      </c>
+      <c r="H188">
+        <v>0.93070000410079956</v>
+      </c>
+      <c r="I188" s="11">
+        <v>0.157</v>
+      </c>
+      <c r="J188" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="H188" t="s">
+      <c r="K188" t="s">
         <v>598</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="L188" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="J188" s="1">
-        <v>0.93470001220703125</v>
-      </c>
-      <c r="K188">
-        <v>0.93070000410079956</v>
-      </c>
-      <c r="L188" s="11">
-        <v>0.157</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F189" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="G189" s="4" t="s">
+      <c r="G189" s="1">
+        <v>0.87470000982284546</v>
+      </c>
+      <c r="H189">
+        <v>0.92879998683929443</v>
+      </c>
+      <c r="I189" s="11">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="J189" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="H189" t="s">
+      <c r="K189" t="s">
         <v>601</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="L189" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="J189" s="1">
-        <v>0.87470000982284546</v>
-      </c>
-      <c r="K189">
-        <v>0.92879998683929443</v>
-      </c>
-      <c r="L189" s="11">
-        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F190" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="G190" s="4" t="s">
+      <c r="G190" s="1">
+        <v>0.93349999189376831</v>
+      </c>
+      <c r="H190">
+        <v>0.94599997997283936</v>
+      </c>
+      <c r="I190" s="11">
+        <v>0.432</v>
+      </c>
+      <c r="J190" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="H190" t="s">
+      <c r="K190" t="s">
         <v>604</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="L190" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="J190" s="1">
-        <v>0.93349999189376831</v>
-      </c>
-      <c r="K190">
-        <v>0.94599997997283936</v>
-      </c>
-      <c r="L190" s="11">
-        <v>0.432</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F191" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="G191" s="4" t="s">
+      <c r="G191" s="1">
+        <v>0.90069997310638428</v>
+      </c>
+      <c r="H191">
+        <v>0.95300000905990601</v>
+      </c>
+      <c r="I191" s="11">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="H191" t="s">
+      <c r="K191" t="s">
         <v>607</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="L191" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="J191" s="1">
-        <v>0.90069997310638428</v>
-      </c>
-      <c r="K191">
-        <v>0.95300000905990601</v>
-      </c>
-      <c r="L191" s="11">
-        <v>0.37109999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -8732,23 +8774,23 @@
       <c r="F192" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="G192" s="1">
+        <v>0.94889998435974121</v>
+      </c>
+      <c r="H192">
+        <v>0.94499999284744263</v>
+      </c>
+      <c r="I192" s="11">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="J192" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="H192" t="s">
+      <c r="K192" t="s">
         <v>613</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="L192" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="J192" s="1">
-        <v>0.94889998435974121</v>
-      </c>
-      <c r="K192">
-        <v>0.94499999284744263</v>
-      </c>
-      <c r="L192" s="11">
-        <v>0.13450000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8758,207 +8800,207 @@
       <c r="F193" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="G193" s="4" t="s">
+      <c r="G193" s="1">
+        <v>0.92070001363754272</v>
+      </c>
+      <c r="H193">
+        <v>0.94880002737045288</v>
+      </c>
+      <c r="I193" s="11">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="J193" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="H193" t="s">
+      <c r="K193" t="s">
         <v>616</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="L193" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="J193" s="1">
-        <v>0.92070001363754272</v>
-      </c>
-      <c r="K193">
-        <v>0.94880002737045288</v>
-      </c>
-      <c r="L193" s="11">
-        <v>0.50849999999999995</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F194" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="G194" s="4" t="s">
+      <c r="G194" s="1">
+        <v>0.91570001840591431</v>
+      </c>
+      <c r="H194">
+        <v>0.89670002460479736</v>
+      </c>
+      <c r="I194" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="J194" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="H194" t="s">
+      <c r="K194" t="s">
         <v>619</v>
       </c>
-      <c r="I194" s="1" t="s">
+      <c r="L194" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="J194" s="1">
-        <v>0.91570001840591431</v>
-      </c>
-      <c r="K194">
-        <v>0.89670002460479736</v>
-      </c>
-      <c r="L194" s="11">
-        <v>0.3125</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F195" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="G195" s="4" t="s">
+      <c r="G195" s="1">
+        <v>0.96630001068115234</v>
+      </c>
+      <c r="H195">
+        <v>0.95679998397827148</v>
+      </c>
+      <c r="I195" s="11">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="J195" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="H195" t="s">
+      <c r="K195" t="s">
         <v>622</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="L195" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="J195" s="1">
-        <v>0.96630001068115234</v>
-      </c>
-      <c r="K195">
-        <v>0.95679998397827148</v>
-      </c>
-      <c r="L195" s="11">
-        <v>0.27679999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F196" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="G196" s="4" t="s">
+      <c r="G196" s="1">
+        <v>0.93660002946853638</v>
+      </c>
+      <c r="H196">
+        <v>0.95179998874664307</v>
+      </c>
+      <c r="I196" s="11">
+        <v>0.3659</v>
+      </c>
+      <c r="J196" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="H196" t="s">
+      <c r="K196" t="s">
         <v>625</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="L196" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="J196" s="1">
-        <v>0.93660002946853638</v>
-      </c>
-      <c r="K196">
-        <v>0.95179998874664307</v>
-      </c>
-      <c r="L196" s="11">
-        <v>0.3659</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F197" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G197" s="1">
+        <v>0.9440000057220459</v>
+      </c>
+      <c r="H197">
+        <v>0.94929999113082886</v>
+      </c>
+      <c r="I197" s="11">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="H197" t="s">
+      <c r="K197" t="s">
         <v>628</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="L197" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="J197" s="1">
-        <v>0.9440000057220459</v>
-      </c>
-      <c r="K197">
-        <v>0.94929999113082886</v>
-      </c>
-      <c r="L197" s="11">
-        <v>0.35830000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F198" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G198" s="1">
+        <v>0.90679997205734253</v>
+      </c>
+      <c r="H198">
+        <v>0.93269997835159302</v>
+      </c>
+      <c r="I198" s="11">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="J198" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="H198" t="s">
+      <c r="K198" t="s">
         <v>631</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="L198" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="J198" s="1">
-        <v>0.90679997205734253</v>
-      </c>
-      <c r="K198">
-        <v>0.93269997835159302</v>
-      </c>
-      <c r="L198" s="11">
-        <v>0.34279999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F199" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="1">
+        <v>0.93589997291564941</v>
+      </c>
+      <c r="H199">
+        <v>0.94870001077651978</v>
+      </c>
+      <c r="I199" s="11">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="J199" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="H199" t="s">
+      <c r="K199" t="s">
         <v>634</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="L199" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="J199" s="1">
-        <v>0.93589997291564941</v>
-      </c>
-      <c r="K199">
-        <v>0.94870001077651978</v>
-      </c>
-      <c r="L199" s="11">
-        <v>0.39119999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F200" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G200" s="1">
+        <v>0.91070002317428589</v>
+      </c>
+      <c r="H200">
+        <v>0.91200000047683716</v>
+      </c>
+      <c r="I200" s="11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="J200" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="H200" t="s">
+      <c r="K200" t="s">
         <v>637</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="L200" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="J200" s="1">
-        <v>0.91070002317428589</v>
-      </c>
-      <c r="K200">
-        <v>0.91200000047683716</v>
-      </c>
-      <c r="L200" s="11">
-        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F201" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="G201" s="4" t="s">
+      <c r="G201" s="1">
+        <v>0.92400002479553223</v>
+      </c>
+      <c r="H201">
+        <v>0.93959999084472656</v>
+      </c>
+      <c r="I201" s="11">
+        <v>0.3049</v>
+      </c>
+      <c r="J201" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="H201" t="s">
+      <c r="K201" t="s">
         <v>640</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="L201" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="J201" s="1">
-        <v>0.92400002479553223</v>
-      </c>
-      <c r="K201">
-        <v>0.93959999084472656</v>
-      </c>
-      <c r="L201" s="11">
-        <v>0.3049</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="225" x14ac:dyDescent="0.25">
@@ -8980,23 +9022,23 @@
       <c r="F202" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G202" s="4" t="s">
+      <c r="G202" s="1">
+        <v>0.88040000200271606</v>
+      </c>
+      <c r="H202">
+        <v>0.93229997158050537</v>
+      </c>
+      <c r="I202" s="11">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="J202" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="H202" t="s">
+      <c r="K202" t="s">
         <v>646</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="L202" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="J202" s="1">
-        <v>0.88040000200271606</v>
-      </c>
-      <c r="K202">
-        <v>0.93229997158050537</v>
-      </c>
-      <c r="L202" s="11">
-        <v>0.42609999999999998</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9006,207 +9048,207 @@
       <c r="F203" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="G203" s="4" t="s">
+      <c r="G203" s="1">
+        <v>0.93199998140335083</v>
+      </c>
+      <c r="H203">
+        <v>0.94319999217987061</v>
+      </c>
+      <c r="I203" s="11">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="J203" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="H203" t="s">
+      <c r="K203" t="s">
         <v>649</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="L203" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="J203" s="1">
-        <v>0.93199998140335083</v>
-      </c>
-      <c r="K203">
-        <v>0.94319999217987061</v>
-      </c>
-      <c r="L203" s="11">
-        <v>0.46410000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F204" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="G204" s="1">
+        <v>0.92750000953674316</v>
+      </c>
+      <c r="H204">
+        <v>0.9067000150680542</v>
+      </c>
+      <c r="I204" s="11">
+        <v>0.2271</v>
+      </c>
+      <c r="J204" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="H204" t="s">
+      <c r="K204" t="s">
         <v>652</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="L204" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="J204" s="1">
-        <v>0.92750000953674316</v>
-      </c>
-      <c r="K204">
-        <v>0.9067000150680542</v>
-      </c>
-      <c r="L204" s="11">
-        <v>0.2271</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F205" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="G205" s="4" t="s">
+      <c r="G205" s="1">
+        <v>0.90600001811981201</v>
+      </c>
+      <c r="H205">
+        <v>0.94630002975463867</v>
+      </c>
+      <c r="I205" s="11">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="J205" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="H205" t="s">
+      <c r="K205" t="s">
         <v>655</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="L205" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="J205" s="1">
-        <v>0.90600001811981201</v>
-      </c>
-      <c r="K205">
-        <v>0.94630002975463867</v>
-      </c>
-      <c r="L205" s="11">
-        <v>0.23949999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F206" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="G206" s="4" t="s">
+      <c r="G206" s="1">
+        <v>0.95850002765655518</v>
+      </c>
+      <c r="H206">
+        <v>0.94450002908706665</v>
+      </c>
+      <c r="I206" s="11">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="J206" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="H206" t="s">
+      <c r="K206" t="s">
         <v>658</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="L206" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="J206" s="1">
-        <v>0.95850002765655518</v>
-      </c>
-      <c r="K206">
-        <v>0.94450002908706665</v>
-      </c>
-      <c r="L206" s="11">
-        <v>0.33729999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F207" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="G207" s="4" t="s">
+      <c r="G207" s="1">
+        <v>0.95990002155303955</v>
+      </c>
+      <c r="H207">
+        <v>0.95670002698898315</v>
+      </c>
+      <c r="I207" s="11">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="J207" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="H207" t="s">
+      <c r="K207" t="s">
         <v>661</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="L207" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="J207" s="1">
-        <v>0.95990002155303955</v>
-      </c>
-      <c r="K207">
-        <v>0.95670002698898315</v>
-      </c>
-      <c r="L207" s="11">
-        <v>0.37890000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F208" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="G208" s="4" t="s">
+      <c r="G208" s="1">
+        <v>0.93550002574920654</v>
+      </c>
+      <c r="H208">
+        <v>0.96149998903274536</v>
+      </c>
+      <c r="I208" s="11">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="J208" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="H208" t="s">
+      <c r="K208" t="s">
         <v>664</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="L208" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="J208" s="1">
-        <v>0.93550002574920654</v>
-      </c>
-      <c r="K208">
-        <v>0.96149998903274536</v>
-      </c>
-      <c r="L208" s="11">
-        <v>0.25879999999999997</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F209" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="G209" s="4" t="s">
+      <c r="G209" s="1">
+        <v>0.96069997549057007</v>
+      </c>
+      <c r="H209">
+        <v>0.95130002498626709</v>
+      </c>
+      <c r="I209" s="11">
+        <v>0.1439</v>
+      </c>
+      <c r="J209" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="H209" t="s">
+      <c r="K209" t="s">
         <v>667</v>
       </c>
-      <c r="I209" s="1" t="s">
+      <c r="L209" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="J209" s="1">
-        <v>0.96069997549057007</v>
-      </c>
-      <c r="K209">
-        <v>0.95130002498626709</v>
-      </c>
-      <c r="L209" s="11">
-        <v>0.1439</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F210" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G210" s="4" t="s">
+      <c r="G210" s="1">
+        <v>0.95440000295639038</v>
+      </c>
+      <c r="H210">
+        <v>0.95310002565383911</v>
+      </c>
+      <c r="I210" s="11">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J210" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="H210" t="s">
+      <c r="K210" t="s">
         <v>670</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="L210" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="J210" s="1">
-        <v>0.95440000295639038</v>
-      </c>
-      <c r="K210">
-        <v>0.95310002565383911</v>
-      </c>
-      <c r="L210" s="11">
-        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F211" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="G211" s="4" t="s">
+      <c r="G211" s="1">
+        <v>0.97030001878738403</v>
+      </c>
+      <c r="H211">
+        <v>0.93569999933242798</v>
+      </c>
+      <c r="I211" s="11">
+        <v>0.1918</v>
+      </c>
+      <c r="J211" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="H211" t="s">
+      <c r="K211" t="s">
         <v>673</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="L211" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="J211" s="1">
-        <v>0.97030001878738403</v>
-      </c>
-      <c r="K211">
-        <v>0.93569999933242798</v>
-      </c>
-      <c r="L211" s="11">
-        <v>0.1918</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="270" x14ac:dyDescent="0.25">
@@ -9228,23 +9270,23 @@
       <c r="F212" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="G212" s="1">
+        <v>0.95829999446868896</v>
+      </c>
+      <c r="H212">
+        <v>0.96319997310638428</v>
+      </c>
+      <c r="I212" s="11">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="J212" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="H212" t="s">
+      <c r="K212" t="s">
         <v>679</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="L212" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="J212" s="1">
-        <v>0.95829999446868896</v>
-      </c>
-      <c r="K212">
-        <v>0.96319997310638428</v>
-      </c>
-      <c r="L212" s="11">
-        <v>0.39290000000000003</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9254,207 +9296,207 @@
       <c r="F213" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="G213" s="4" t="s">
+      <c r="G213" s="1">
+        <v>0.96689999103546143</v>
+      </c>
+      <c r="H213">
+        <v>0.9538000226020813</v>
+      </c>
+      <c r="I213" s="11">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="J213" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="H213" t="s">
+      <c r="K213" t="s">
         <v>682</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="L213" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="J213" s="1">
-        <v>0.96689999103546143</v>
-      </c>
-      <c r="K213">
-        <v>0.9538000226020813</v>
-      </c>
-      <c r="L213" s="11">
-        <v>0.28920000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F214" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="G214" s="4" t="s">
+      <c r="G214" s="1">
+        <v>0.95249998569488525</v>
+      </c>
+      <c r="H214">
+        <v>0.93760001659393311</v>
+      </c>
+      <c r="I214" s="11">
+        <v>0.2424</v>
+      </c>
+      <c r="J214" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H214" t="s">
+      <c r="K214" t="s">
         <v>685</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="L214" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="J214" s="1">
-        <v>0.95249998569488525</v>
-      </c>
-      <c r="K214">
-        <v>0.93760001659393311</v>
-      </c>
-      <c r="L214" s="11">
-        <v>0.2424</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F215" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="G215" s="4" t="s">
+      <c r="G215" s="1">
+        <v>0.90700000524520874</v>
+      </c>
+      <c r="H215">
+        <v>0.94520002603530884</v>
+      </c>
+      <c r="I215" s="11">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="H215" t="s">
+      <c r="K215" t="s">
         <v>688</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="J215" s="1">
-        <v>0.90700000524520874</v>
-      </c>
-      <c r="K215">
-        <v>0.94520002603530884</v>
-      </c>
-      <c r="L215" s="11">
-        <v>0.33779999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F216" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="G216" s="4" t="s">
+      <c r="G216" s="1">
+        <v>0.95420002937316895</v>
+      </c>
+      <c r="H216">
+        <v>0.95200002193450928</v>
+      </c>
+      <c r="I216" s="11">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="J216" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="H216" t="s">
+      <c r="K216" t="s">
         <v>691</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="L216" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="J216" s="1">
-        <v>0.95420002937316895</v>
-      </c>
-      <c r="K216">
-        <v>0.95200002193450928</v>
-      </c>
-      <c r="L216" s="11">
-        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F217" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="G217" s="4" t="s">
+      <c r="G217" s="1">
+        <v>0.94609999656677246</v>
+      </c>
+      <c r="H217">
+        <v>0.94160002470016479</v>
+      </c>
+      <c r="I217" s="11">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="J217" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="H217" t="s">
+      <c r="K217" t="s">
         <v>694</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="L217" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="J217" s="1">
-        <v>0.94609999656677246</v>
-      </c>
-      <c r="K217">
-        <v>0.94160002470016479</v>
-      </c>
-      <c r="L217" s="11">
-        <v>0.17680000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F218" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="G218" s="4" t="s">
+      <c r="G218" s="1">
+        <v>0.94760000705718994</v>
+      </c>
+      <c r="H218">
+        <v>0.94349998235702515</v>
+      </c>
+      <c r="I218" s="11">
+        <v>0.28589999999999999</v>
+      </c>
+      <c r="J218" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="H218" t="s">
+      <c r="K218" t="s">
         <v>697</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="L218" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="J218" s="1">
-        <v>0.94760000705718994</v>
-      </c>
-      <c r="K218">
-        <v>0.94349998235702515</v>
-      </c>
-      <c r="L218" s="11">
-        <v>0.28589999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F219" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="G219" s="4" t="s">
+      <c r="G219" s="1">
+        <v>0.92369997501373291</v>
+      </c>
+      <c r="H219">
+        <v>0.93610000610351563</v>
+      </c>
+      <c r="I219" s="11">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="J219" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="H219" t="s">
+      <c r="K219" t="s">
         <v>700</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="L219" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="J219" s="1">
-        <v>0.92369997501373291</v>
-      </c>
-      <c r="K219">
-        <v>0.93610000610351563</v>
-      </c>
-      <c r="L219" s="11">
-        <v>0.27639999999999998</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F220" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="G220" s="4" t="s">
+      <c r="G220" s="1">
+        <v>0.97219997644424438</v>
+      </c>
+      <c r="H220">
+        <v>0.9627000093460083</v>
+      </c>
+      <c r="I220" s="11">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="J220" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="H220" t="s">
+      <c r="K220" t="s">
         <v>703</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="L220" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="J220" s="1">
-        <v>0.97219997644424438</v>
-      </c>
-      <c r="K220">
-        <v>0.9627000093460083</v>
-      </c>
-      <c r="L220" s="11">
-        <v>0.25109999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F221" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="G221" s="4" t="s">
+      <c r="G221" s="1">
+        <v>0.97229999303817749</v>
+      </c>
+      <c r="H221">
+        <v>0.96539998054504395</v>
+      </c>
+      <c r="I221" s="11">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="J221" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H221" t="s">
+      <c r="K221" t="s">
         <v>706</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="L221" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="J221" s="1">
-        <v>0.97229999303817749</v>
-      </c>
-      <c r="K221">
-        <v>0.96539998054504395</v>
-      </c>
-      <c r="L221" s="11">
-        <v>0.29770000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="300" x14ac:dyDescent="0.25">
@@ -9476,23 +9518,23 @@
       <c r="F222" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="G222" s="4" t="s">
+      <c r="G222" s="1">
+        <v>0.95800000429153442</v>
+      </c>
+      <c r="H222">
+        <v>0.95230001211166382</v>
+      </c>
+      <c r="I222" s="11">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J222" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="H222" t="s">
+      <c r="K222" t="s">
         <v>711</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="L222" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="J222" s="1">
-        <v>0.95800000429153442</v>
-      </c>
-      <c r="K222">
-        <v>0.95230001211166382</v>
-      </c>
-      <c r="L222" s="11">
-        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9502,207 +9544,207 @@
       <c r="F223" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G223" s="1">
+        <v>0.94220000505447388</v>
+      </c>
+      <c r="H223">
+        <v>0.94550001621246338</v>
+      </c>
+      <c r="I223" s="11">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="J223" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="H223" t="s">
+      <c r="K223" t="s">
         <v>714</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="L223" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="J223" s="1">
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="K223">
-        <v>0.94550001621246338</v>
-      </c>
-      <c r="L223" s="11">
-        <v>0.25840000000000002</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F224" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="G224" s="4" t="s">
+      <c r="G224" s="1">
+        <v>0.90530002117156982</v>
+      </c>
+      <c r="H224">
+        <v>0.95130002498626709</v>
+      </c>
+      <c r="I224" s="11">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="J224" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="H224" t="s">
+      <c r="K224" t="s">
         <v>717</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="L224" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="J224" s="1">
-        <v>0.90530002117156982</v>
-      </c>
-      <c r="K224">
-        <v>0.95130002498626709</v>
-      </c>
-      <c r="L224" s="11">
-        <v>0.22120000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F225" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="G225" s="4" t="s">
+      <c r="G225" s="1">
+        <v>0.96950000524520874</v>
+      </c>
+      <c r="H225">
+        <v>0.96329998970031738</v>
+      </c>
+      <c r="I225" s="11">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="J225" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="H225" t="s">
+      <c r="K225" t="s">
         <v>720</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="L225" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="J225" s="1">
-        <v>0.96950000524520874</v>
-      </c>
-      <c r="K225">
-        <v>0.96329998970031738</v>
-      </c>
-      <c r="L225" s="11">
-        <v>0.38790000000000002</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F226" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="G226" s="4" t="s">
+      <c r="G226" s="1">
+        <v>0.93339997529983521</v>
+      </c>
+      <c r="H226">
+        <v>0.95230001211166382</v>
+      </c>
+      <c r="I226" s="11">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="J226" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="H226" t="s">
+      <c r="K226" t="s">
         <v>723</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="L226" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="J226" s="1">
-        <v>0.93339997529983521</v>
-      </c>
-      <c r="K226">
-        <v>0.95230001211166382</v>
-      </c>
-      <c r="L226" s="11">
-        <v>0.36940000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F227" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="G227" s="4" t="s">
+      <c r="G227" s="1">
+        <v>0.8968999981880188</v>
+      </c>
+      <c r="H227">
+        <v>0.93739998340606689</v>
+      </c>
+      <c r="I227" s="11">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="J227" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="H227" t="s">
+      <c r="K227" t="s">
         <v>726</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="L227" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="J227" s="1">
-        <v>0.8968999981880188</v>
-      </c>
-      <c r="K227">
-        <v>0.93739998340606689</v>
-      </c>
-      <c r="L227" s="11">
-        <v>0.25059999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F228" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="G228" s="4" t="s">
+      <c r="G228" s="1">
+        <v>0.87879997491836548</v>
+      </c>
+      <c r="H228">
+        <v>0.90850001573562622</v>
+      </c>
+      <c r="I228" s="11">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="J228" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="H228" t="s">
+      <c r="K228" t="s">
         <v>729</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="L228" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="J228" s="1">
-        <v>0.87879997491836548</v>
-      </c>
-      <c r="K228">
-        <v>0.90850001573562622</v>
-      </c>
-      <c r="L228" s="11">
-        <v>0.18479999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F229" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="G229" s="4" t="s">
+      <c r="G229" s="1">
+        <v>0.96710002422332764</v>
+      </c>
+      <c r="H229">
+        <v>0.95910000801086426</v>
+      </c>
+      <c r="I229" s="11">
+        <v>0.2495</v>
+      </c>
+      <c r="J229" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="H229" t="s">
+      <c r="K229" t="s">
         <v>732</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="L229" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="J229" s="1">
-        <v>0.96710002422332764</v>
-      </c>
-      <c r="K229">
-        <v>0.95910000801086426</v>
-      </c>
-      <c r="L229" s="11">
-        <v>0.2495</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F230" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="G230" s="4" t="s">
+      <c r="G230" s="1">
+        <v>0.88870000839233398</v>
+      </c>
+      <c r="H230">
+        <v>0.93639999628067017</v>
+      </c>
+      <c r="I230" s="11">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="J230" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="H230" t="s">
+      <c r="K230" t="s">
         <v>735</v>
       </c>
-      <c r="I230" s="1" t="s">
+      <c r="L230" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="J230" s="1">
-        <v>0.88870000839233398</v>
-      </c>
-      <c r="K230">
-        <v>0.93639999628067017</v>
-      </c>
-      <c r="L230" s="11">
-        <v>0.39639999999999997</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F231" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="G231" s="4" t="s">
+      <c r="G231" s="1">
+        <v>0.96050000190734863</v>
+      </c>
+      <c r="H231">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="I231" s="11">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="J231" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="H231" t="s">
+      <c r="K231" t="s">
         <v>738</v>
       </c>
-      <c r="I231" s="1" t="s">
+      <c r="L231" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="J231" s="1">
-        <v>0.96050000190734863</v>
-      </c>
-      <c r="K231">
-        <v>0.94279998540878296</v>
-      </c>
-      <c r="L231" s="11">
-        <v>0.21540000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -9724,23 +9766,23 @@
       <c r="F232" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G232" s="1">
+        <v>0.94349998235702515</v>
+      </c>
+      <c r="H232">
+        <v>0.93970000743865967</v>
+      </c>
+      <c r="I232" s="11">
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="J232" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="H232" t="s">
+      <c r="K232" t="s">
         <v>744</v>
       </c>
-      <c r="I232" s="1" t="s">
+      <c r="L232" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="J232" s="1">
-        <v>0.94349998235702515</v>
-      </c>
-      <c r="K232">
-        <v>0.93970000743865967</v>
-      </c>
-      <c r="L232" s="11">
-        <v>0.43569999999999998</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9750,207 +9792,207 @@
       <c r="F233" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="G233" s="4" t="s">
+      <c r="G233" s="1">
+        <v>0.90410000085830688</v>
+      </c>
+      <c r="H233">
+        <v>0.94550001621246338</v>
+      </c>
+      <c r="I233" s="11">
+        <v>0.1293</v>
+      </c>
+      <c r="J233" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="H233" t="s">
+      <c r="K233" t="s">
         <v>747</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="L233" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="J233" s="1">
-        <v>0.90410000085830688</v>
-      </c>
-      <c r="K233">
-        <v>0.94550001621246338</v>
-      </c>
-      <c r="L233" s="11">
-        <v>0.1293</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F234" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G234" s="1">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="H234">
+        <v>0.95850002765655518</v>
+      </c>
+      <c r="I234" s="11">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="J234" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="H234" t="s">
+      <c r="K234" t="s">
         <v>750</v>
       </c>
-      <c r="I234" s="1" t="s">
+      <c r="L234" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="J234" s="1">
-        <v>0.93500000238418579</v>
-      </c>
-      <c r="K234">
-        <v>0.95850002765655518</v>
-      </c>
-      <c r="L234" s="11">
-        <v>0.22270000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F235" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G235" s="4" t="s">
+      <c r="G235" s="1">
+        <v>0.95819997787475586</v>
+      </c>
+      <c r="H235">
+        <v>0.94160002470016479</v>
+      </c>
+      <c r="I235" s="11">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="J235" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="H235" t="s">
+      <c r="K235" t="s">
         <v>753</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="L235" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="J235" s="1">
-        <v>0.95819997787475586</v>
-      </c>
-      <c r="K235">
-        <v>0.94160002470016479</v>
-      </c>
-      <c r="L235" s="11">
-        <v>0.14080000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F236" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="G236" s="4" t="s">
+      <c r="G236" s="1">
+        <v>0.95169997215270996</v>
+      </c>
+      <c r="H236">
+        <v>0.93809998035430908</v>
+      </c>
+      <c r="I236" s="11">
+        <v>0.39539999999999997</v>
+      </c>
+      <c r="J236" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="H236" t="s">
+      <c r="K236" t="s">
         <v>756</v>
       </c>
-      <c r="I236" s="1" t="s">
+      <c r="L236" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="J236" s="1">
-        <v>0.95169997215270996</v>
-      </c>
-      <c r="K236">
-        <v>0.93809998035430908</v>
-      </c>
-      <c r="L236" s="11">
-        <v>0.39539999999999997</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F237" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="G237" s="4" t="s">
+      <c r="G237" s="1">
+        <v>0.93599998950958252</v>
+      </c>
+      <c r="H237">
+        <v>0.95099997520446777</v>
+      </c>
+      <c r="I237" s="11">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="J237" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="H237" t="s">
+      <c r="K237" t="s">
         <v>759</v>
       </c>
-      <c r="I237" s="1" t="s">
+      <c r="L237" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="J237" s="1">
-        <v>0.93599998950958252</v>
-      </c>
-      <c r="K237">
-        <v>0.95099997520446777</v>
-      </c>
-      <c r="L237" s="11">
-        <v>0.19850000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F238" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="G238" s="4" t="s">
+      <c r="G238" s="1">
+        <v>0.892799973487854</v>
+      </c>
+      <c r="H238">
+        <v>0.93949997425079346</v>
+      </c>
+      <c r="I238" s="11">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="J238" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="H238" t="s">
+      <c r="K238" t="s">
         <v>762</v>
       </c>
-      <c r="I238" s="1" t="s">
+      <c r="L238" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="J238" s="1">
-        <v>0.892799973487854</v>
-      </c>
-      <c r="K238">
-        <v>0.93949997425079346</v>
-      </c>
-      <c r="L238" s="11">
-        <v>0.25109999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F239" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="G239" s="4" t="s">
+      <c r="G239" s="1">
+        <v>0.92619997262954712</v>
+      </c>
+      <c r="H239">
+        <v>0.93779999017715454</v>
+      </c>
+      <c r="I239" s="11">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="J239" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="H239" t="s">
+      <c r="K239" t="s">
         <v>765</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="L239" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="J239" s="1">
-        <v>0.92619997262954712</v>
-      </c>
-      <c r="K239">
-        <v>0.93779999017715454</v>
-      </c>
-      <c r="L239" s="11">
-        <v>0.24429999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F240" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G240" s="4" t="s">
+      <c r="G240" s="1">
+        <v>0.93699997663497925</v>
+      </c>
+      <c r="H240">
+        <v>0.93870002031326294</v>
+      </c>
+      <c r="I240" s="11">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="J240" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H240" t="s">
+      <c r="K240" t="s">
         <v>8</v>
       </c>
-      <c r="I240" s="1" t="s">
+      <c r="L240" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="J240" s="1">
-        <v>0.93699997663497925</v>
-      </c>
-      <c r="K240">
-        <v>0.93870002031326294</v>
-      </c>
-      <c r="L240" s="11">
-        <v>0.37319999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F241" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="G241" s="4" t="s">
+      <c r="G241" s="1">
+        <v>0.91360002756118774</v>
+      </c>
+      <c r="H241">
+        <v>0.95679998397827148</v>
+      </c>
+      <c r="I241" s="11">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="J241" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="H241" t="s">
+      <c r="K241" t="s">
         <v>768</v>
       </c>
-      <c r="I241" s="1" t="s">
+      <c r="L241" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="J241" s="1">
-        <v>0.91360002756118774</v>
-      </c>
-      <c r="K241">
-        <v>0.95679998397827148</v>
-      </c>
-      <c r="L241" s="11">
-        <v>0.24779999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -9972,23 +10014,23 @@
       <c r="F242" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G242" s="4" t="s">
+      <c r="G242" s="1">
+        <v>0.95980000495910645</v>
+      </c>
+      <c r="H242">
+        <v>0.94220000505447388</v>
+      </c>
+      <c r="I242" s="11">
+        <v>0.2903</v>
+      </c>
+      <c r="J242" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="H242" t="s">
+      <c r="K242" t="s">
         <v>774</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="L242" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="J242" s="1">
-        <v>0.95980000495910645</v>
-      </c>
-      <c r="K242">
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="L242" s="11">
-        <v>0.2903</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9998,211 +10040,261 @@
       <c r="F243" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="G243" s="1">
+        <v>0.93819999694824219</v>
+      </c>
+      <c r="H243">
+        <v>0.95389997959136963</v>
+      </c>
+      <c r="I243" s="11">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="J243" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="H243" t="s">
+      <c r="K243" t="s">
         <v>777</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="L243" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="J243" s="1">
-        <v>0.93819999694824219</v>
-      </c>
-      <c r="K243">
-        <v>0.95389997959136963</v>
-      </c>
-      <c r="L243" s="11">
-        <v>0.35909999999999997</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F244" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G244" s="4" t="s">
+      <c r="G244" s="1">
+        <v>0.95370000600814819</v>
+      </c>
+      <c r="H244">
+        <v>0.9341999888420105</v>
+      </c>
+      <c r="I244" s="11">
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="J244" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="H244" t="s">
+      <c r="K244" t="s">
         <v>780</v>
       </c>
-      <c r="I244" s="1" t="s">
+      <c r="L244" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="J244" s="1">
-        <v>0.95370000600814819</v>
-      </c>
-      <c r="K244">
-        <v>0.9341999888420105</v>
-      </c>
-      <c r="L244" s="11">
-        <v>0.33829999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F245" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="G245" s="4" t="s">
+      <c r="G245" s="1">
+        <v>0.90890002250671387</v>
+      </c>
+      <c r="H245">
+        <v>0.93790000677108765</v>
+      </c>
+      <c r="I245" s="11">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="J245" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="H245" t="s">
+      <c r="K245" t="s">
         <v>783</v>
       </c>
-      <c r="I245" s="1" t="s">
+      <c r="L245" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="J245" s="1">
-        <v>0.90890002250671387</v>
-      </c>
-      <c r="K245">
-        <v>0.93790000677108765</v>
-      </c>
-      <c r="L245" s="11">
-        <v>0.26979999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F246" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="G246" s="4" t="s">
+      <c r="G246" s="1">
+        <v>0.91689997911453247</v>
+      </c>
+      <c r="H246">
+        <v>0.94429999589920044</v>
+      </c>
+      <c r="I246" s="11">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="J246" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="H246" t="s">
+      <c r="K246" t="s">
         <v>786</v>
       </c>
-      <c r="I246" s="1" t="s">
+      <c r="L246" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="J246" s="1">
-        <v>0.91689997911453247</v>
-      </c>
-      <c r="K246">
-        <v>0.94429999589920044</v>
-      </c>
-      <c r="L246" s="11">
-        <v>0.23860000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F247" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="G247" s="4" t="s">
+      <c r="G247" s="1">
+        <v>0.90950000286102295</v>
+      </c>
+      <c r="H247">
+        <v>0.93379998207092285</v>
+      </c>
+      <c r="I247" s="11">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="J247" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="H247" t="s">
+      <c r="K247" t="s">
         <v>789</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="L247" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="J247" s="1">
-        <v>0.90950000286102295</v>
-      </c>
-      <c r="K247">
-        <v>0.93379998207092285</v>
-      </c>
-      <c r="L247" s="11">
-        <v>0.30630000000000002</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F248" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G248" s="4" t="s">
+      <c r="G248" s="1">
+        <v>0.92500001192092896</v>
+      </c>
+      <c r="H248">
+        <v>0.9398999810218811</v>
+      </c>
+      <c r="I248" s="11">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="J248" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="H248" t="s">
+      <c r="K248" t="s">
         <v>792</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="L248" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="J248" s="1">
-        <v>0.92500001192092896</v>
-      </c>
-      <c r="K248">
-        <v>0.9398999810218811</v>
-      </c>
-      <c r="L248" s="11">
-        <v>0.30630000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F249" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="G249" s="4" t="s">
+      <c r="G249" s="1">
+        <v>0.88069999217987061</v>
+      </c>
+      <c r="H249">
+        <v>0.95319998264312744</v>
+      </c>
+      <c r="I249" s="11">
+        <v>0.1943</v>
+      </c>
+      <c r="J249" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="H249" t="s">
+      <c r="K249" t="s">
         <v>795</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="L249" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="J249" s="1">
-        <v>0.88069999217987061</v>
-      </c>
-      <c r="K249">
-        <v>0.95319998264312744</v>
-      </c>
-      <c r="L249" s="11">
-        <v>0.1943</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F250" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="G250" s="4" t="s">
+      <c r="G250" s="1">
+        <v>0.92419999837875366</v>
+      </c>
+      <c r="H250">
+        <v>0.9562000036239624</v>
+      </c>
+      <c r="I250" s="11">
+        <v>0.3785</v>
+      </c>
+      <c r="J250" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="H250" t="s">
+      <c r="K250" t="s">
         <v>798</v>
       </c>
-      <c r="I250" s="1" t="s">
+      <c r="L250" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="J250" s="1">
-        <v>0.92419999837875366</v>
-      </c>
-      <c r="K250">
-        <v>0.9562000036239624</v>
-      </c>
-      <c r="L250" s="11">
-        <v>0.3785</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F251" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G251" s="4" t="s">
+      <c r="G251" s="1">
+        <v>0.90030002593994141</v>
+      </c>
+      <c r="H251">
+        <v>0.9398999810218811</v>
+      </c>
+      <c r="I251" s="11">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="J251" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="H251" t="s">
+      <c r="K251" t="s">
         <v>801</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="L251" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="J251" s="1">
-        <v>0.90030002593994141</v>
-      </c>
-      <c r="K251">
-        <v>0.9398999810218811</v>
-      </c>
-      <c r="L251" s="11">
-        <v>0.20630000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD73600-0159-4E00-9601-0090C90C0AD8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>